--- a/Process/PTW-Timesheet.xlsx
+++ b/Process/PTW-Timesheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79BFE84A-0320-4428-9CC3-354F099C19BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B999E3DC-FDCF-4BE6-B6CB-6C668C4018D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-04-2022" sheetId="40" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="23-04-2022 " sheetId="55" r:id="rId15"/>
     <sheet name="25-04-2022" sheetId="56" r:id="rId16"/>
     <sheet name="26-04-2022" sheetId="57" r:id="rId17"/>
+    <sheet name="27-04-2022" sheetId="58" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="506">
   <si>
     <t>Resource Name</t>
   </si>
@@ -1585,6 +1586,78 @@
   </si>
   <si>
     <t>HTML Layout and Css forAdmin (List )Pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.30-9.00am          Standup meeting  </t>
+  </si>
+  <si>
+    <t>9.00-9.45am  Form layout for adding request page</t>
+  </si>
+  <si>
+    <t>9.45-10.30am  Soft Skill session</t>
+  </si>
+  <si>
+    <t>Entity Realtionships,Fluent Api,Web Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.55am-1pm  Added container,form alignment for adding reuqest page </t>
+  </si>
+  <si>
+    <t>2 hours 5 mins</t>
+  </si>
+  <si>
+    <t>1.50-2pm  Timesheet update</t>
+  </si>
+  <si>
+    <t>2-2.50pm  added Profile Image for adding request page</t>
+  </si>
+  <si>
+    <t>50 mins</t>
+  </si>
+  <si>
+    <t>2.50-4.35pm- Meeting with rafi</t>
+  </si>
+  <si>
+    <t>1 hour 45 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                        5.05-5.30 Team meeting</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         5.30-6.00  Entity Framework exploration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                         7.00pm-8.00pm Exploration on  Db context ,Db Set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                          9.30-11pm Exploration on DBcontext operations</t>
+  </si>
+  <si>
+    <t>1 hour 30 mins</t>
+  </si>
+  <si>
+    <t>In-progress things</t>
+  </si>
+  <si>
+    <t>(yesterday)Done thing   3pm-4pm</t>
+  </si>
+  <si>
+    <t>Done thing1  4pm-4.30pm</t>
+  </si>
+  <si>
+    <t>Done thing2  5pm-6pm</t>
+  </si>
+  <si>
+    <t>(today) Done thing 10am-11am</t>
+  </si>
+  <si>
+    <t>Done thing   11.15am-12pm</t>
+  </si>
+  <si>
+    <t>9.00-11.00am</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1839,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -2195,13 +2268,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2551,6 +2655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2707,7 +2812,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent4" xfId="1" builtinId="41"/>
@@ -3513,12 +3632,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -3530,36 +3649,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="153"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="154"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -3569,12 +3688,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -3582,12 +3701,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -3595,21 +3714,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="159"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -3617,14 +3736,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -3634,23 +3753,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="145"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="150" t="s">
+      <c r="A12" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -3660,12 +3779,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="150"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="140"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -3673,12 +3792,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -3686,12 +3805,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="150"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -3699,50 +3818,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="150" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="144" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="146">
+      <c r="F16" s="147">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="148"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -3751,7 +3870,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="145" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -3761,14 +3880,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -3778,14 +3897,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="144"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -3793,25 +3912,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="151"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -3820,7 +3939,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -3832,12 +3951,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -3845,12 +3964,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -3858,21 +3977,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="141"/>
+      <c r="D27" s="142"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="149" t="s">
+      <c r="A28" s="150" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="143" t="s">
+      <c r="D28" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -3880,14 +3999,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -3895,23 +4014,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="150"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="150" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="146"/>
+      <c r="D31" s="147"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -3919,14 +4038,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="150"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -3934,12 +4053,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="150"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -3947,32 +4066,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="150"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="147"/>
+      <c r="D34" s="148"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="151"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="148"/>
+      <c r="D35" s="149"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="144" t="s">
+      <c r="D36" s="145" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -3982,12 +4101,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="144"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -3995,14 +4114,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="144"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -4012,11 +4131,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="144"/>
+      <c r="D39" s="145"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -4024,10 +4143,10 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="145"/>
+      <c r="D40" s="146"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
@@ -4104,12 +4223,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4121,36 +4240,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="153"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="154"/>
+      <c r="A4" s="155"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="145" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -4160,14 +4279,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="144"/>
+      <c r="D6" s="145"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -4175,12 +4294,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="144"/>
+      <c r="D7" s="145"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -4188,12 +4307,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="144"/>
+      <c r="D8" s="145"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -4201,12 +4320,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="159"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -4214,14 +4333,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4231,14 +4350,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -4248,14 +4367,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="159"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="145"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -4263,7 +4382,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -4272,7 +4391,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4284,12 +4403,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -4297,12 +4416,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="150"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -4310,57 +4429,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="150" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="144" t="s">
+      <c r="E16" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="146">
+      <c r="F16" s="147">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="148"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="145"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="145" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -4370,12 +4489,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -4383,12 +4502,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="144"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -4396,12 +4515,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -4409,14 +4528,14 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="160" t="s">
+      <c r="A23" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="86"/>
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="139" t="s">
+      <c r="D23" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -4428,14 +4547,14 @@
       <c r="G23" s="59"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="161"/>
+      <c r="A24" s="162"/>
       <c r="B24" s="87" t="s">
         <v>271</v>
       </c>
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="140"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -4443,12 +4562,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="161"/>
+      <c r="A25" s="162"/>
       <c r="B25" s="88"/>
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -4456,21 +4575,21 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="162"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="151" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="146" t="s">
+      <c r="D27" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -4478,12 +4597,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="150"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="147"/>
+      <c r="D28" s="148"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -4491,14 +4610,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="147"/>
+      <c r="D29" s="148"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -4521,14 +4640,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="150" t="s">
+      <c r="A31" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="144"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -4536,14 +4655,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="150"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -4551,12 +4670,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="150"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="144"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -4564,32 +4683,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="150"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="144"/>
+      <c r="D34" s="145"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="151"/>
+      <c r="A35" s="152"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="145"/>
+      <c r="D35" s="146"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150" t="s">
+      <c r="A36" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="139" t="s">
+      <c r="D36" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -4599,12 +4718,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="140"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -4612,14 +4731,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="140"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -4629,12 +4748,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="140"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -4642,10 +4761,10 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="151"/>
+      <c r="A40" s="152"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="141"/>
+      <c r="D40" s="142"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
@@ -4722,12 +4841,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="167" t="s">
+      <c r="D2" s="168" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4739,36 +4858,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="169"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -4778,14 +4897,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -4793,12 +4912,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -4806,32 +4925,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="159"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -4841,14 +4960,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -4858,14 +4977,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="159"/>
+      <c r="A12" s="160"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -4875,14 +4994,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="150" t="s">
+      <c r="A13" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -4894,23 +5013,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="150"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -4918,12 +5037,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -4931,12 +5050,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="141"/>
+      <c r="D17" s="142"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -4944,57 +5063,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="149" t="s">
+      <c r="A18" s="150" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="144" t="s">
+      <c r="D18" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="144" t="s">
+      <c r="E18" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="146">
+      <c r="F18" s="147">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="150"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="144"/>
-      <c r="F19" s="147"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="148"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="145"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="148"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="149"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="144" t="s">
+      <c r="D21" s="145" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -5004,12 +5123,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -5017,12 +5136,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -5030,12 +5149,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="150"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -5043,14 +5162,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="160" t="s">
+      <c r="A25" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="86"/>
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="139" t="s">
+      <c r="D25" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -5062,12 +5181,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="166"/>
+      <c r="A26" s="167"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -5075,12 +5194,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="161"/>
+      <c r="A27" s="162"/>
       <c r="B27" s="87"/>
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -5088,12 +5207,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="161"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="88"/>
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -5101,12 +5220,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="162"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="95"/>
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="140"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -5114,14 +5233,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="151" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -5131,12 +5250,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="150"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -5144,14 +5263,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="150"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -5172,14 +5291,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="144" t="s">
+      <c r="D34" s="145" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -5189,14 +5308,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="150"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="144"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -5204,12 +5323,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="144"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -5217,12 +5336,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="144"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -5230,23 +5349,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="151"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="144"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="164" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -5256,12 +5375,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="164"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -5269,14 +5388,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="164"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -5286,22 +5405,22 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="164"/>
+      <c r="D42" s="165"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="165"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
@@ -5378,12 +5497,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="171" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -5395,36 +5514,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="169"/>
+      <c r="D4" s="170"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -5434,14 +5553,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -5449,12 +5568,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -5462,12 +5581,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -5475,23 +5594,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="159"/>
+      <c r="A9" s="160"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158" t="s">
+      <c r="A10" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="143" t="s">
+      <c r="D10" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5501,14 +5620,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -5516,12 +5635,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -5529,23 +5648,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="159"/>
+      <c r="A13" s="160"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -5555,12 +5674,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="150"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -5568,12 +5687,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -5581,12 +5700,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -5594,64 +5713,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="141"/>
+      <c r="D18" s="142"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="150" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="144" t="s">
+      <c r="E19" s="145" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="146"/>
+      <c r="F19" s="147"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="144"/>
-      <c r="F20" s="147"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="148"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="145"/>
-      <c r="E21" s="144"/>
-      <c r="F21" s="148"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="149"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="149" t="s">
+      <c r="A22" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="145" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -5661,12 +5780,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="145"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -5674,14 +5793,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="150"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -5689,14 +5808,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -5706,14 +5825,14 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="161" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="78"/>
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="139" t="s">
+      <c r="D26" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -5723,14 +5842,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="166"/>
+      <c r="A27" s="167"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -5738,12 +5857,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="161"/>
+      <c r="A28" s="162"/>
       <c r="B28" s="68"/>
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -5751,12 +5870,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="161"/>
+      <c r="A29" s="162"/>
       <c r="B29" s="80"/>
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="140"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -5764,12 +5883,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="171"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="108"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -5777,14 +5896,14 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="172" t="s">
+      <c r="A31" s="173" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="173" t="s">
+      <c r="D31" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="109" t="s">
@@ -5794,14 +5913,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="137"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -5809,12 +5928,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="138"/>
+      <c r="A33" s="139"/>
       <c r="B33" s="61"/>
       <c r="C33" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="149"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -5822,14 +5941,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="150" t="s">
+      <c r="A34" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="144" t="s">
+      <c r="D34" s="145" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -5839,14 +5958,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="150"/>
+      <c r="A35" s="151"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="144"/>
+      <c r="D35" s="145"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -5854,12 +5973,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="144"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -5867,12 +5986,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="144"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -5880,12 +5999,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="151"/>
+      <c r="A38" s="152"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="144"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="64" t="s">
         <v>342</v>
       </c>
@@ -5893,14 +6012,14 @@
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="163" t="s">
+      <c r="D39" s="164" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -5910,12 +6029,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D40" s="164"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="77" t="s">
         <v>344</v>
       </c>
@@ -5923,14 +6042,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66" t="s">
         <v>345</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="D41" s="164"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -5940,19 +6059,19 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="164"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="46"/>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="165"/>
+      <c r="D43" s="166"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
@@ -6026,14 +6145,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="151" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="171" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -6045,14 +6164,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="150"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="63" t="s">
         <v>349</v>
       </c>
@@ -6060,12 +6179,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="151"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="63" t="s">
         <v>351</v>
       </c>
@@ -6073,14 +6192,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -6090,12 +6209,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -6103,14 +6222,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63" t="s">
         <v>185</v>
       </c>
@@ -6118,32 +6237,32 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="159"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -6153,12 +6272,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="63" t="s">
         <v>180</v>
       </c>
@@ -6166,14 +6285,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="158"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -6183,14 +6302,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="158"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="66" t="s">
         <v>180</v>
       </c>
@@ -6198,12 +6317,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="159"/>
+      <c r="A15" s="160"/>
       <c r="B15" s="63"/>
       <c r="C15" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="66" t="s">
         <v>351</v>
       </c>
@@ -6211,14 +6330,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -6228,14 +6347,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="98" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -6243,14 +6362,14 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="87" t="s">
         <v>255</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="63" t="s">
         <v>130</v>
       </c>
@@ -6260,12 +6379,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="150"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="64"/>
       <c r="C19" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="141"/>
+      <c r="D19" s="142"/>
       <c r="E19" s="64" t="s">
         <v>130</v>
       </c>
@@ -6273,66 +6392,66 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="146" t="s">
+      <c r="E20" s="147" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="143"/>
-      <c r="G20" s="146"/>
+      <c r="F20" s="144"/>
+      <c r="G20" s="147"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="60"/>
       <c r="C21" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="137"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="60" t="s">
         <v>321</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="137"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="148"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="136" t="s">
+      <c r="A24" s="137" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="140" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="117" t="s">
@@ -6342,12 +6461,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="137"/>
+      <c r="A25" s="138"/>
       <c r="B25" s="57"/>
       <c r="C25" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="85" t="s">
         <v>173</v>
       </c>
@@ -6355,12 +6474,12 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="137"/>
+      <c r="A26" s="138"/>
       <c r="B26" s="57"/>
       <c r="C26" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="66" t="s">
         <v>374</v>
       </c>
@@ -6368,14 +6487,14 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="137"/>
+      <c r="A27" s="138"/>
       <c r="B27" s="57" t="s">
         <v>325</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="66" t="s">
         <v>309</v>
       </c>
@@ -6383,12 +6502,12 @@
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="137"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C28" s="64"/>
-      <c r="D28" s="141"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="67" t="s">
         <v>309</v>
       </c>
@@ -6396,14 +6515,14 @@
       <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="175" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="140" t="s">
+      <c r="D29" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -6413,14 +6532,14 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A30" s="175"/>
+      <c r="A30" s="176"/>
       <c r="B30" s="60" t="s">
         <v>376</v>
       </c>
       <c r="C30" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="98" t="s">
         <v>378</v>
       </c>
@@ -6428,12 +6547,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="176"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="69"/>
       <c r="C31" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="140"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="63" t="s">
         <v>309</v>
       </c>
@@ -6441,12 +6560,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="176"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="114"/>
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="140"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="63" t="s">
         <v>381</v>
       </c>
@@ -6454,12 +6573,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="177"/>
+      <c r="A33" s="178"/>
       <c r="B33" s="115"/>
       <c r="C33" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="63" t="s">
         <v>311</v>
       </c>
@@ -6467,14 +6586,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="137" t="s">
+      <c r="A34" s="138" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="109"/>
       <c r="C34" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="173" t="s">
+      <c r="D34" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="109" t="s">
@@ -6484,12 +6603,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="60"/>
       <c r="C35" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="60" t="s">
         <v>130</v>
       </c>
@@ -6497,14 +6616,14 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="137"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="60" t="s">
         <v>385</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -6512,12 +6631,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="137"/>
+      <c r="A37" s="138"/>
       <c r="B37" s="60"/>
       <c r="C37" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="60" t="s">
         <v>191</v>
       </c>
@@ -6525,23 +6644,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="138"/>
+      <c r="A38" s="139"/>
       <c r="B38" s="61"/>
       <c r="C38" s="111"/>
-      <c r="D38" s="148"/>
+      <c r="D38" s="149"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="144" t="s">
+      <c r="D39" s="145" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="98" t="s">
@@ -6551,14 +6670,14 @@
       <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66" t="s">
         <v>388</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="144"/>
+      <c r="D40" s="145"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -6566,12 +6685,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D41" s="144"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="63" t="s">
         <v>241</v>
       </c>
@@ -6579,12 +6698,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D42" s="144"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -6592,61 +6711,61 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="67"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="144"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="150" t="s">
+      <c r="A44" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="62"/>
-      <c r="D44" s="163"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="46"/>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="150"/>
+      <c r="A45" s="151"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63"/>
-      <c r="D45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="77"/>
       <c r="F45" s="63"/>
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="150"/>
+      <c r="A46" s="151"/>
       <c r="B46" s="66" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="164"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="57"/>
       <c r="F46" s="63"/>
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="150"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="164"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="151"/>
+      <c r="A48" s="152"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="165"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
@@ -6721,14 +6840,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="151" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="171" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -6740,12 +6859,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="150"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="171"/>
       <c r="E4" s="63" t="s">
         <v>288</v>
       </c>
@@ -6753,14 +6872,14 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="150"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="66" t="s">
         <v>394</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="168"/>
+      <c r="D5" s="169"/>
       <c r="E5" s="63" t="s">
         <v>395</v>
       </c>
@@ -6768,12 +6887,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="67"/>
       <c r="C6" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="63" t="s">
         <v>397</v>
       </c>
@@ -6781,12 +6900,12 @@
       <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="62"/>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="84"/>
@@ -6794,54 +6913,54 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="66"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="63"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="66"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="140"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="64"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="85" t="s">
@@ -6851,12 +6970,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="158"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="63"/>
       <c r="C13" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="63" t="s">
         <v>358</v>
       </c>
@@ -6864,14 +6983,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="158"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="63" t="s">
         <v>180</v>
       </c>
@@ -6879,12 +6998,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="158"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="63" t="s">
         <v>399</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="66"/>
       <c r="F15" s="63" t="s">
         <v>400</v>
@@ -6892,14 +7011,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="137" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="118"/>
       <c r="C16" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -6909,14 +7028,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="137"/>
+      <c r="A17" s="138"/>
       <c r="B17" s="77" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -6926,12 +7045,12 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="138"/>
+      <c r="A18" s="139"/>
       <c r="B18" s="119"/>
       <c r="C18" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="63" t="s">
         <v>288</v>
       </c>
@@ -6941,97 +7060,97 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="146" t="s">
+      <c r="E19" s="147" t="s">
         <v>405</v>
       </c>
-      <c r="F19" s="143"/>
-      <c r="G19" s="146"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="147"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="60"/>
       <c r="C20" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="60" t="s">
         <v>406</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="137"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="60"/>
       <c r="C22" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="137"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="148"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="116"/>
-      <c r="D24" s="139"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="117"/>
       <c r="F24" s="65"/>
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="66"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="85"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="66" t="s">
         <v>216</v>
       </c>
@@ -7043,32 +7162,32 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="150"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="120"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="141"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="175" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="140" t="s">
+      <c r="D29" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -7078,14 +7197,14 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="176"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="69" t="s">
         <v>410</v>
       </c>
       <c r="C30" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="63" t="s">
         <v>412</v>
       </c>
@@ -7093,12 +7212,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="176"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="69"/>
       <c r="C31" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D31" s="140"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="63" t="s">
         <v>288</v>
       </c>
@@ -7106,12 +7225,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="176"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="114"/>
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="140"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="63" t="s">
         <v>413</v>
       </c>
@@ -7119,12 +7238,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="172"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="115"/>
       <c r="C33" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="63" t="s">
         <v>415</v>
       </c>
@@ -7132,14 +7251,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="56" t="s">
         <v>416</v>
       </c>
-      <c r="D34" s="146" t="s">
+      <c r="D34" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="59" t="s">
@@ -7149,12 +7268,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="60"/>
       <c r="C35" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="63" t="s">
         <v>288</v>
       </c>
@@ -7162,12 +7281,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="137"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="60"/>
       <c r="C36" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -7175,14 +7294,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="138"/>
+      <c r="A37" s="139"/>
       <c r="B37" s="61" t="s">
         <v>417</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="149"/>
       <c r="E37" s="61" t="s">
         <v>130</v>
       </c>
@@ -7190,14 +7309,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150" t="s">
+      <c r="A38" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="93" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="140" t="s">
+      <c r="D38" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="98" t="s">
@@ -7207,14 +7326,14 @@
       <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="66" t="s">
         <v>421</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="140"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="63" t="s">
         <v>243</v>
       </c>
@@ -7222,12 +7341,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -7235,12 +7354,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="63" t="s">
         <v>288</v>
       </c>
@@ -7248,12 +7367,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66"/>
       <c r="C42" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="140"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -7261,25 +7380,25 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="151"/>
+      <c r="A43" s="152"/>
       <c r="B43" s="67"/>
       <c r="C43" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="140"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="150" t="s">
+      <c r="A44" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="163"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="46" t="s">
         <v>180</v>
       </c>
@@ -7287,12 +7406,12 @@
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="150"/>
+      <c r="A45" s="151"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="77" t="s">
         <v>239</v>
       </c>
@@ -7300,14 +7419,14 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="150"/>
+      <c r="A46" s="151"/>
       <c r="B46" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C46" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="164"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="63" t="s">
         <v>288</v>
       </c>
@@ -7315,19 +7434,19 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="150"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="164"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="151"/>
+      <c r="A48" s="152"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="165"/>
+      <c r="D48" s="166"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
@@ -7366,8 +7485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAA35E27-B53B-45F7-BA52-AC0AB77FF2F1}">
   <dimension ref="A2:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="B14" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7405,14 +7524,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="151" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="170" t="s">
+      <c r="D3" s="171" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -7424,14 +7543,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="150"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="66" t="s">
         <v>428</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="168"/>
+      <c r="D4" s="169"/>
       <c r="E4" s="63" t="s">
         <v>180</v>
       </c>
@@ -7439,12 +7558,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="150"/>
+      <c r="A5" s="151"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="178"/>
+      <c r="D5" s="179"/>
       <c r="E5" s="63" t="s">
         <v>180</v>
       </c>
@@ -7452,12 +7571,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="151"/>
+      <c r="A6" s="152"/>
       <c r="B6" s="67"/>
       <c r="C6" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="D6" s="169"/>
+      <c r="D6" s="170"/>
       <c r="E6" s="63" t="s">
         <v>238</v>
       </c>
@@ -7465,14 +7584,14 @@
       <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158" t="s">
+      <c r="A7" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="140" t="s">
+      <c r="D7" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="84" t="s">
@@ -7482,12 +7601,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66"/>
       <c r="C8" s="121" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="84" t="s">
         <v>180</v>
       </c>
@@ -7495,14 +7614,14 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66" t="s">
         <v>432</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="63" t="s">
         <v>239</v>
       </c>
@@ -7510,32 +7629,32 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="66"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="63"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="66"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="140"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="64"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="85" t="s">
@@ -7545,12 +7664,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="158"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="63"/>
       <c r="C13" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="63" t="s">
         <v>358</v>
       </c>
@@ -7558,14 +7677,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="158"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="63" t="s">
         <v>435</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="63" t="s">
         <v>180</v>
       </c>
@@ -7573,23 +7692,23 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="158"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="63"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="66"/>
       <c r="F15" s="63"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="149" t="s">
+      <c r="A16" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -7599,12 +7718,12 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="98"/>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -7612,12 +7731,12 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="151"/>
+      <c r="A18" s="152"/>
       <c r="B18" s="122" t="s">
         <v>402</v>
       </c>
       <c r="C18" s="61"/>
-      <c r="D18" s="140"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="63" t="s">
         <v>191</v>
       </c>
@@ -7625,65 +7744,65 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137" t="s">
+      <c r="A19" s="138" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="146"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="146"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="144"/>
+      <c r="G19" s="147"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="60"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="147"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="144"/>
-      <c r="G20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="60" t="s">
         <v>216</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="144"/>
-      <c r="G21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="145"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="137"/>
+      <c r="A22" s="138"/>
       <c r="B22" s="60"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="144"/>
-      <c r="G22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="148"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="137"/>
+      <c r="A23" s="138"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="148"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="139"/>
+      <c r="D24" s="140"/>
       <c r="E24" s="84" t="s">
         <v>180</v>
       </c>
@@ -7691,12 +7810,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="66"/>
       <c r="C25" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="84" t="s">
         <v>180</v>
       </c>
@@ -7704,14 +7823,14 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="66" t="s">
         <v>432</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="63" t="s">
         <v>239</v>
       </c>
@@ -7719,32 +7838,32 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="150"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="120"/>
       <c r="C28" s="63"/>
-      <c r="D28" s="141"/>
+      <c r="D28" s="142"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="175" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="113"/>
       <c r="C29" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="140" t="s">
+      <c r="D29" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -7754,12 +7873,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="176"/>
+      <c r="A30" s="177"/>
       <c r="B30" s="69" t="s">
         <v>437</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="D30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="63" t="s">
         <v>438</v>
       </c>
@@ -7767,12 +7886,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="176"/>
+      <c r="A31" s="177"/>
       <c r="B31" s="69"/>
       <c r="C31" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D31" s="140"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="63" t="s">
         <v>440</v>
       </c>
@@ -7780,12 +7899,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="176"/>
+      <c r="A32" s="177"/>
       <c r="B32" s="114"/>
       <c r="C32" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="140"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="63" t="s">
         <v>138</v>
       </c>
@@ -7793,23 +7912,23 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="172"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="115"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="140"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="136" t="s">
+      <c r="A34" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="146" t="s">
+      <c r="D34" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="59" t="s">
@@ -7819,14 +7938,14 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
+      <c r="A35" s="138"/>
       <c r="B35" s="60" t="s">
         <v>441</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D35" s="147"/>
+      <c r="D35" s="148"/>
       <c r="E35" s="63" t="s">
         <v>180</v>
       </c>
@@ -7834,12 +7953,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="137"/>
+      <c r="A36" s="138"/>
       <c r="B36" s="60"/>
       <c r="C36" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -7847,12 +7966,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="138"/>
+      <c r="A37" s="139"/>
       <c r="B37" s="61"/>
       <c r="C37" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="D37" s="148"/>
+      <c r="D37" s="149"/>
       <c r="E37" s="61" t="s">
         <v>130</v>
       </c>
@@ -7860,14 +7979,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150" t="s">
+      <c r="A38" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="140" t="s">
+      <c r="D38" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="98" t="s">
@@ -7877,14 +7996,14 @@
       <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="66" t="s">
         <v>444</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="140"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="63" t="s">
         <v>446</v>
       </c>
@@ -7892,12 +8011,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="63" t="s">
         <v>173</v>
       </c>
@@ -7905,12 +8024,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66"/>
       <c r="C41" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="63" t="s">
         <v>238</v>
       </c>
@@ -7918,12 +8037,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66"/>
       <c r="C42" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="D42" s="140"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="63" t="s">
         <v>450</v>
       </c>
@@ -7931,41 +8050,41 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="150"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="66"/>
       <c r="C43" s="63"/>
-      <c r="D43" s="140"/>
+      <c r="D43" s="141"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="150"/>
+      <c r="A44" s="151"/>
       <c r="B44" s="66"/>
       <c r="C44" s="63"/>
-      <c r="D44" s="140"/>
+      <c r="D44" s="141"/>
       <c r="E44" s="63"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="151"/>
+      <c r="A45" s="152"/>
       <c r="B45" s="67"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="140"/>
+      <c r="D45" s="141"/>
       <c r="E45" s="64"/>
       <c r="F45" s="60"/>
       <c r="G45" s="61"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="150" t="s">
+      <c r="A46" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="66"/>
       <c r="C46" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="D46" s="163"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="46" t="s">
         <v>165</v>
       </c>
@@ -7973,12 +8092,12 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="150"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="66"/>
       <c r="C47" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="D47" s="164"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -7986,14 +8105,14 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="150"/>
+      <c r="A48" s="151"/>
       <c r="B48" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C48" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="164"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="63" t="s">
         <v>453</v>
       </c>
@@ -8001,19 +8120,19 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="150"/>
+      <c r="A49" s="151"/>
       <c r="B49" s="66"/>
       <c r="C49" s="93"/>
-      <c r="D49" s="164"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="46"/>
       <c r="F49" s="101"/>
       <c r="G49" s="60"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="151"/>
+      <c r="A50" s="152"/>
       <c r="B50" s="67"/>
       <c r="C50" s="99"/>
-      <c r="D50" s="165"/>
+      <c r="D50" s="166"/>
       <c r="E50" s="58"/>
       <c r="F50" s="64"/>
       <c r="G50" s="61"/>
@@ -8052,8 +8171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A25FFA7-9C59-4D42-AFAC-AA640885A051}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8091,14 +8210,14 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="170" t="s">
+      <c r="D2" s="171" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -8110,14 +8229,14 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="66" t="s">
         <v>454</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="168"/>
+      <c r="D3" s="169"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -8125,12 +8244,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="150"/>
+      <c r="A4" s="151"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>455</v>
       </c>
-      <c r="D4" s="178"/>
+      <c r="D4" s="179"/>
       <c r="E4" s="63" t="s">
         <v>170</v>
       </c>
@@ -8138,12 +8257,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="151"/>
+      <c r="A5" s="152"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="169"/>
+      <c r="D5" s="170"/>
       <c r="E5" s="63" t="s">
         <v>457</v>
       </c>
@@ -8151,14 +8270,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -8168,12 +8287,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="98" t="s">
         <v>170</v>
       </c>
@@ -8181,14 +8300,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158"/>
+      <c r="A8" s="159"/>
       <c r="B8" s="66" t="s">
         <v>459</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63"/>
       <c r="F8" s="63" t="s">
         <v>170</v>
@@ -8196,12 +8315,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="D9" s="140"/>
+      <c r="D9" s="141"/>
       <c r="E9" s="63" t="s">
         <v>170</v>
       </c>
@@ -8209,23 +8328,23 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="159"/>
+      <c r="A10" s="160"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="140"/>
+      <c r="D10" s="141"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -8235,12 +8354,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158"/>
+      <c r="A12" s="159"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="144"/>
+      <c r="D12" s="145"/>
       <c r="E12" s="63" t="s">
         <v>462</v>
       </c>
@@ -8248,14 +8367,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="158"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="63" t="s">
         <v>435</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -8263,23 +8382,23 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="158"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="63"/>
       <c r="C14" s="77"/>
-      <c r="D14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="84" t="s">
@@ -8289,12 +8408,12 @@
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150"/>
+      <c r="A16" s="151"/>
       <c r="B16" s="98"/>
       <c r="C16" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="140"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="98" t="s">
         <v>363</v>
       </c>
@@ -8302,14 +8421,14 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="151"/>
+      <c r="A17" s="152"/>
       <c r="B17" s="122" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="140"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="63" t="s">
         <v>130</v>
       </c>
@@ -8319,7 +8438,7 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="137" t="s">
+      <c r="A18" s="138" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="57"/>
@@ -8332,7 +8451,7 @@
       <c r="G18" s="123"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="137"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="60" t="s">
         <v>464</v>
       </c>
@@ -8347,7 +8466,7 @@
       <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="137"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="60"/>
       <c r="C20" s="77" t="s">
         <v>466</v>
@@ -8358,14 +8477,14 @@
       <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="139"/>
+      <c r="D21" s="140"/>
       <c r="E21" s="84" t="s">
         <v>180</v>
       </c>
@@ -8373,12 +8492,12 @@
       <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="66"/>
       <c r="C22" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="D22" s="140"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="98" t="s">
         <v>130</v>
       </c>
@@ -8386,14 +8505,14 @@
       <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="66" t="s">
         <v>468</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="D23" s="140"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="63" t="s">
         <v>130</v>
       </c>
@@ -8401,12 +8520,12 @@
       <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="150"/>
+      <c r="A24" s="151"/>
       <c r="B24" s="66"/>
       <c r="C24" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="140"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="63" t="s">
         <v>130</v>
       </c>
@@ -8414,21 +8533,21 @@
       <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="120"/>
       <c r="C25" s="64"/>
-      <c r="D25" s="141"/>
+      <c r="D25" s="142"/>
       <c r="E25" s="64"/>
       <c r="F25" s="58"/>
       <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="174" t="s">
+      <c r="A26" s="175" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="113"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="140" t="s">
+      <c r="D26" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="98"/>
@@ -8436,53 +8555,53 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="176"/>
+      <c r="A27" s="177"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="140"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="63"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="176"/>
+      <c r="A28" s="177"/>
       <c r="B28" s="69" t="s">
         <v>216</v>
       </c>
       <c r="C28" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="140"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="63"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="176"/>
+      <c r="A29" s="177"/>
       <c r="B29" s="114"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="140"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="63"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="172"/>
+      <c r="A30" s="173"/>
       <c r="B30" s="115"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="140"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="63"/>
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="147" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="59" t="s">
@@ -8492,14 +8611,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="137"/>
+      <c r="A32" s="138"/>
       <c r="B32" s="60" t="s">
         <v>471</v>
       </c>
       <c r="C32" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="63" t="s">
         <v>180</v>
       </c>
@@ -8507,12 +8626,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="137"/>
+      <c r="A33" s="138"/>
       <c r="B33" s="60"/>
       <c r="C33" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="D33" s="147"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="60" t="s">
         <v>130</v>
       </c>
@@ -8520,12 +8639,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="138"/>
+      <c r="A34" s="139"/>
       <c r="B34" s="61"/>
       <c r="C34" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="D34" s="148"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="61" t="s">
         <v>191</v>
       </c>
@@ -8533,12 +8652,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="66"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="140" t="s">
+      <c r="C35" s="127"/>
+      <c r="D35" s="141" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="98"/>
@@ -8546,14 +8665,14 @@
       <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="66" t="s">
         <v>444</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="D36" s="140"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="63" t="s">
         <v>296</v>
       </c>
@@ -8561,12 +8680,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="66"/>
       <c r="C37" s="93" t="s">
         <v>475</v>
       </c>
-      <c r="D37" s="140"/>
+      <c r="D37" s="141"/>
       <c r="E37" s="63" t="s">
         <v>457</v>
       </c>
@@ -8574,12 +8693,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="66"/>
       <c r="C38" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="140"/>
+      <c r="D38" s="141"/>
       <c r="E38" s="63" t="s">
         <v>173</v>
       </c>
@@ -8587,12 +8706,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="D39" s="140"/>
+      <c r="D39" s="141"/>
       <c r="E39" s="63" t="s">
         <v>170</v>
       </c>
@@ -8600,12 +8719,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="150"/>
+      <c r="A40" s="151"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="140"/>
+      <c r="D40" s="141"/>
       <c r="E40" s="63" t="s">
         <v>170</v>
       </c>
@@ -8613,12 +8732,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66"/>
       <c r="C41" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="D41" s="140"/>
+      <c r="D41" s="141"/>
       <c r="E41" s="63" t="s">
         <v>238</v>
       </c>
@@ -8626,23 +8745,23 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="151"/>
+      <c r="A42" s="152"/>
       <c r="B42" s="67"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="140"/>
+      <c r="D42" s="141"/>
       <c r="E42" s="64"/>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="150" t="s">
+      <c r="A43" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="D43" s="163"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="46" t="s">
         <v>479</v>
       </c>
@@ -8650,12 +8769,12 @@
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="150"/>
+      <c r="A44" s="151"/>
       <c r="B44" s="66"/>
       <c r="C44" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="164"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="77" t="s">
         <v>263</v>
       </c>
@@ -8663,14 +8782,14 @@
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="150"/>
+      <c r="A45" s="151"/>
       <c r="B45" s="66" t="s">
         <v>480</v>
       </c>
       <c r="C45" s="93" t="s">
         <v>467</v>
       </c>
-      <c r="D45" s="164"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="46" t="s">
         <v>170</v>
       </c>
@@ -8678,12 +8797,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="150"/>
+      <c r="A46" s="151"/>
       <c r="B46" s="66"/>
       <c r="C46" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="D46" s="164"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="63" t="s">
         <v>168</v>
       </c>
@@ -8691,10 +8810,10 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="151"/>
+      <c r="A47" s="152"/>
       <c r="B47" s="67"/>
       <c r="C47" s="99"/>
-      <c r="D47" s="165"/>
+      <c r="D47" s="166"/>
       <c r="E47" s="58"/>
       <c r="F47" s="64"/>
       <c r="G47" s="61"/>
@@ -8720,6 +8839,661 @@
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="D11:D14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B344DC-88A7-45BE-964F-FD770AC19D50}">
+  <dimension ref="C4:I60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="26" customWidth="1"/>
+    <col min="9" max="9" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:9" ht="48.75" customHeight="1">
+      <c r="C4" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="184" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="102" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9">
+      <c r="C5" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="66"/>
+      <c r="E5" s="62" t="s">
+        <v>482</v>
+      </c>
+      <c r="F5" s="181"/>
+      <c r="G5" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="60"/>
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="151"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="F6" s="182"/>
+      <c r="G6" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+    </row>
+    <row r="7" spans="3:9">
+      <c r="C7" s="151"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="63" t="s">
+        <v>484</v>
+      </c>
+      <c r="F7" s="183"/>
+      <c r="G7" s="63" t="s">
+        <v>288</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+    </row>
+    <row r="8" spans="3:9">
+      <c r="C8" s="151"/>
+      <c r="D8" s="66" t="s">
+        <v>485</v>
+      </c>
+      <c r="E8" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="F8" s="183"/>
+      <c r="G8" s="63" t="s">
+        <v>487</v>
+      </c>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+    </row>
+    <row r="9" spans="3:9">
+      <c r="C9" s="151"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="F9" s="183"/>
+      <c r="G9" s="63" t="s">
+        <v>462</v>
+      </c>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="3:9">
+      <c r="C10" s="151"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="63" t="s">
+        <v>489</v>
+      </c>
+      <c r="F10" s="183"/>
+      <c r="G10" s="63" t="s">
+        <v>490</v>
+      </c>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+    </row>
+    <row r="11" spans="3:9">
+      <c r="C11" s="151"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="63" t="s">
+        <v>491</v>
+      </c>
+      <c r="F11" s="183"/>
+      <c r="G11" s="63" t="s">
+        <v>492</v>
+      </c>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+    </row>
+    <row r="12" spans="3:9">
+      <c r="C12" s="151"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="76" t="s">
+        <v>493</v>
+      </c>
+      <c r="F12" s="183"/>
+      <c r="G12" s="63" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+    </row>
+    <row r="13" spans="3:9">
+      <c r="C13" s="151"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="76" t="s">
+        <v>495</v>
+      </c>
+      <c r="F13" s="183"/>
+      <c r="G13" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+    </row>
+    <row r="14" spans="3:9">
+      <c r="C14" s="151"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="76" t="s">
+        <v>496</v>
+      </c>
+      <c r="F14" s="183"/>
+      <c r="G14" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+    </row>
+    <row r="15" spans="3:9">
+      <c r="C15" s="152"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="99" t="s">
+        <v>497</v>
+      </c>
+      <c r="F15" s="180"/>
+      <c r="G15" s="63" t="s">
+        <v>498</v>
+      </c>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="3:9">
+      <c r="C16" s="159" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="66"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="159"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="C18" s="159"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="159"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+    </row>
+    <row r="20" spans="3:9">
+      <c r="C20" s="160"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="C21" s="159" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>499</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>500</v>
+      </c>
+      <c r="F21" s="144"/>
+      <c r="G21" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" s="59"/>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="C22" s="159"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="77" t="s">
+        <v>501</v>
+      </c>
+      <c r="F22" s="145"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="60"/>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="C23" s="159"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="F23" s="145"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="60"/>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="C24" s="159"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="57" t="s">
+        <v>503</v>
+      </c>
+      <c r="F24" s="145"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="60"/>
+    </row>
+    <row r="25" spans="3:9">
+      <c r="C25" s="159"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="77" t="s">
+        <v>504</v>
+      </c>
+      <c r="F25" s="145"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="60"/>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="C26" s="150" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="100"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+    </row>
+    <row r="27" spans="3:9">
+      <c r="C27" s="151"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+    </row>
+    <row r="28" spans="3:9">
+      <c r="C28" s="151"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+    </row>
+    <row r="29" spans="3:9">
+      <c r="C29" s="151"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+    </row>
+    <row r="30" spans="3:9">
+      <c r="C30" s="152"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+    </row>
+    <row r="31" spans="3:9">
+      <c r="C31" s="138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="123"/>
+    </row>
+    <row r="32" spans="3:9">
+      <c r="C32" s="138"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="124"/>
+      <c r="H32" s="126"/>
+      <c r="I32" s="124"/>
+    </row>
+    <row r="33" spans="3:9">
+      <c r="C33" s="138"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="124"/>
+      <c r="H33" s="126"/>
+      <c r="I33" s="124"/>
+    </row>
+    <row r="34" spans="3:9">
+      <c r="C34" s="138"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="124"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="124"/>
+    </row>
+    <row r="35" spans="3:9">
+      <c r="C35" s="138"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="124"/>
+    </row>
+    <row r="36" spans="3:9">
+      <c r="C36" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="65"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="84"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="62"/>
+    </row>
+    <row r="37" spans="3:9">
+      <c r="C37" s="151"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="98"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="3:9">
+      <c r="C38" s="151"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="141"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="63"/>
+    </row>
+    <row r="39" spans="3:9">
+      <c r="C39" s="151"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="63"/>
+    </row>
+    <row r="40" spans="3:9">
+      <c r="C40" s="151"/>
+      <c r="D40" s="120"/>
+      <c r="E40" s="64"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="64"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="64"/>
+    </row>
+    <row r="41" spans="3:9">
+      <c r="C41" s="175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="113"/>
+      <c r="E41" s="63" t="s">
+        <v>505</v>
+      </c>
+      <c r="F41" s="141"/>
+      <c r="G41" s="98"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+    </row>
+    <row r="42" spans="3:9">
+      <c r="C42" s="177"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="141"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+    </row>
+    <row r="43" spans="3:9">
+      <c r="C43" s="177"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+    </row>
+    <row r="44" spans="3:9">
+      <c r="C44" s="177"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+    </row>
+    <row r="45" spans="3:9">
+      <c r="C45" s="173"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="61"/>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="59"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="147"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="60"/>
+    </row>
+    <row r="47" spans="3:9">
+      <c r="C47" s="138"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="148"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+    </row>
+    <row r="48" spans="3:9">
+      <c r="C48" s="138"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="148"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+    </row>
+    <row r="49" spans="3:9">
+      <c r="C49" s="138"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="148"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+    </row>
+    <row r="50" spans="3:9">
+      <c r="C50" s="139"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="60"/>
+    </row>
+    <row r="51" spans="3:9">
+      <c r="C51" s="151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="66"/>
+      <c r="E51" s="127"/>
+      <c r="F51" s="141"/>
+      <c r="G51" s="98"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="59"/>
+    </row>
+    <row r="52" spans="3:9">
+      <c r="C52" s="151"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="63"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+    </row>
+    <row r="53" spans="3:9">
+      <c r="C53" s="151"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="63"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+    </row>
+    <row r="54" spans="3:9">
+      <c r="C54" s="151"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+    </row>
+    <row r="55" spans="3:9">
+      <c r="C55" s="152"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="61"/>
+    </row>
+    <row r="56" spans="3:9">
+      <c r="C56" s="151" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56" s="66"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="164"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="60"/>
+    </row>
+    <row r="57" spans="3:9">
+      <c r="C57" s="151"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="165"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="60"/>
+    </row>
+    <row r="58" spans="3:9">
+      <c r="C58" s="151"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="93"/>
+      <c r="F58" s="165"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="60"/>
+    </row>
+    <row r="59" spans="3:9">
+      <c r="C59" s="151"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="165"/>
+      <c r="G59" s="63"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="60"/>
+    </row>
+    <row r="60" spans="3:9">
+      <c r="C60" s="152"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="166"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C41:C45"/>
+    <mergeCell ref="F41:F45"/>
+    <mergeCell ref="C5:C15"/>
+    <mergeCell ref="F5:F15"/>
+    <mergeCell ref="C16:C20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="C26:C30"/>
+    <mergeCell ref="F26:F30"/>
+    <mergeCell ref="C31:C35"/>
+    <mergeCell ref="C36:C40"/>
+    <mergeCell ref="F36:F40"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="F46:F50"/>
+    <mergeCell ref="C51:C55"/>
+    <mergeCell ref="F51:F55"/>
+    <mergeCell ref="C56:C60"/>
+    <mergeCell ref="F56:F60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10471,7 +11245,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="131" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -10480,7 +11254,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="127" t="s">
+      <c r="D2" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -10492,14 +11266,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="131"/>
+      <c r="A3" s="132"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="128"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -10507,11 +11281,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="131"/>
+      <c r="A4" s="132"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="128"/>
+      <c r="D4" s="129"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -10519,12 +11293,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="132"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="129"/>
+      <c r="D5" s="130"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -10532,7 +11306,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="134" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -10541,7 +11315,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="127" t="s">
+      <c r="D6" s="128" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -10551,11 +11325,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="133"/>
+      <c r="A7" s="134"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="128"/>
+      <c r="D7" s="129"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -10563,22 +11337,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="133"/>
-      <c r="D8" s="128"/>
+      <c r="A8" s="134"/>
+      <c r="D8" s="129"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="133"/>
-      <c r="D9" s="128"/>
+      <c r="A9" s="134"/>
+      <c r="D9" s="129"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="134"/>
-      <c r="D10" s="129"/>
+      <c r="A10" s="135"/>
+      <c r="D10" s="130"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -10586,7 +11360,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="135" t="s">
+      <c r="A11" s="136" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -10595,7 +11369,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="128" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -10605,11 +11379,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="135"/>
+      <c r="A12" s="136"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="128"/>
+      <c r="D12" s="129"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -10617,14 +11391,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="135"/>
+      <c r="A13" s="136"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="128"/>
+      <c r="D13" s="129"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -10632,24 +11406,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="135"/>
+      <c r="A14" s="136"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="128"/>
+      <c r="D14" s="129"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="135"/>
-      <c r="D15" s="129"/>
+      <c r="A15" s="136"/>
+      <c r="D15" s="130"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="136" t="s">
+      <c r="A16" s="137" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -10658,7 +11432,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="127" t="s">
+      <c r="D16" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -10668,11 +11442,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="137"/>
+      <c r="A17" s="138"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="128"/>
+      <c r="D17" s="129"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -10680,11 +11454,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="137"/>
+      <c r="A18" s="138"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -10692,11 +11466,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="137"/>
+      <c r="A19" s="138"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="129"/>
+      <c r="D19" s="130"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -10704,7 +11478,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="136" t="s">
+      <c r="A20" s="137" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -10719,7 +11493,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="137"/>
+      <c r="A21" s="138"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -10729,7 +11503,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="138"/>
+      <c r="A22" s="139"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -10744,7 +11518,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="143" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -10753,7 +11527,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="127"/>
+      <c r="D23" s="128"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -10761,11 +11535,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="142"/>
+      <c r="A24" s="143"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="128"/>
+      <c r="D24" s="129"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -10773,11 +11547,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="142"/>
+      <c r="A25" s="143"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="128"/>
+      <c r="D25" s="129"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -10785,11 +11559,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="142"/>
+      <c r="A26" s="143"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="129"/>
+      <c r="D26" s="130"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -10797,7 +11571,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="136" t="s">
+      <c r="A27" s="137" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -10806,7 +11580,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="127" t="s">
+      <c r="D27" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -10816,14 +11590,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="137"/>
+      <c r="A28" s="138"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="128"/>
+      <c r="D28" s="129"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -10831,11 +11605,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="137"/>
+      <c r="A29" s="138"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="128"/>
+      <c r="D29" s="129"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -10843,12 +11617,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="137"/>
+      <c r="A30" s="138"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="129"/>
+      <c r="D30" s="130"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -10856,10 +11630,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="136" t="s">
+      <c r="A31" s="137" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="139" t="s">
+      <c r="D31" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -10867,14 +11641,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="137"/>
+      <c r="A32" s="138"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="140"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -10882,14 +11656,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="137"/>
+      <c r="A33" s="138"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="140"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -10897,28 +11671,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="137"/>
-      <c r="D34" s="140"/>
+      <c r="A34" s="138"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="137"/>
-      <c r="D35" s="141"/>
+      <c r="A35" s="138"/>
+      <c r="D35" s="142"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="136" t="s">
+      <c r="A36" s="137" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="127"/>
+      <c r="D36" s="128"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -10926,14 +11700,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="137"/>
+      <c r="A37" s="138"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="128"/>
+      <c r="D37" s="129"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -10941,11 +11715,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="137"/>
+      <c r="A38" s="138"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="128"/>
+      <c r="D38" s="129"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -10953,46 +11727,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="137"/>
-      <c r="D39" s="128"/>
+      <c r="A39" s="138"/>
+      <c r="D39" s="129"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="138"/>
+      <c r="A40" s="139"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="129"/>
+      <c r="D40" s="130"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="137" t="s">
+      <c r="A41" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="127" t="s">
+      <c r="D41" s="128" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="137"/>
-      <c r="D42" s="128"/>
+      <c r="A42" s="138"/>
+      <c r="D42" s="129"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="137"/>
+      <c r="A43" s="138"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="128"/>
+      <c r="D43" s="129"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -11002,16 +11776,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="137"/>
-      <c r="D44" s="128"/>
+      <c r="A44" s="138"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="138"/>
+      <c r="A45" s="139"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="129"/>
+      <c r="D45" s="130"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -11085,7 +11859,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="153" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -11094,7 +11868,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -11106,12 +11880,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="153"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -11119,12 +11893,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="153"/>
+      <c r="A4" s="154"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="156"/>
+      <c r="D4" s="157"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -11132,12 +11906,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="153"/>
+      <c r="A5" s="154"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="156"/>
+      <c r="D5" s="157"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -11145,12 +11919,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="153"/>
+      <c r="A6" s="154"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="156"/>
+      <c r="D6" s="157"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -11158,12 +11932,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="154"/>
+      <c r="A7" s="155"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="157"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -11171,7 +11945,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -11180,7 +11954,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="145" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -11190,12 +11964,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158"/>
+      <c r="A9" s="159"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="144"/>
+      <c r="D9" s="145"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -11203,12 +11977,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -11216,12 +11990,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="159"/>
+      <c r="A11" s="160"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="145"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -11229,14 +12003,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="143" t="s">
+      <c r="D12" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -11246,12 +12020,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="158"/>
+      <c r="A13" s="159"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="144"/>
+      <c r="D13" s="145"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -11259,12 +12033,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="158"/>
+      <c r="A14" s="159"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="144"/>
+      <c r="D14" s="145"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -11272,12 +12046,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="158"/>
+      <c r="A15" s="159"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="144"/>
+      <c r="D15" s="145"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -11285,23 +12059,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="159"/>
+      <c r="A16" s="160"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="145"/>
+      <c r="D16" s="146"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="151" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -11311,14 +12085,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="144"/>
+      <c r="D18" s="145"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -11326,12 +12100,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="150"/>
+      <c r="A19" s="151"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="144"/>
+      <c r="D19" s="145"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -11339,12 +12113,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -11352,7 +12126,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="149" t="s">
+      <c r="A21" s="150" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -11361,41 +12135,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="143" t="s">
+      <c r="E21" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="146" t="s">
+      <c r="F21" s="147" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="144"/>
-      <c r="E22" s="144"/>
-      <c r="F22" s="147"/>
+      <c r="D22" s="145"/>
+      <c r="E22" s="145"/>
+      <c r="F22" s="148"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="150"/>
+      <c r="A23" s="151"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="148"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="149"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -11404,7 +12178,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="144"/>
+      <c r="D24" s="145"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -11412,12 +12186,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="145"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -11425,12 +12199,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="144"/>
+      <c r="D26" s="145"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -11438,12 +12212,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="150"/>
+      <c r="A27" s="151"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="144"/>
+      <c r="D27" s="145"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -11451,12 +12225,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="151"/>
+      <c r="A28" s="152"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="145"/>
+      <c r="D28" s="146"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -11464,7 +12238,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150" t="s">
+      <c r="A29" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -11473,7 +12247,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="143" t="s">
+      <c r="D29" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -11485,12 +12259,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="150"/>
+      <c r="A30" s="151"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="144"/>
+      <c r="D30" s="145"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -11498,12 +12272,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="150"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="144"/>
+      <c r="D31" s="145"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -11511,12 +12285,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="150"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="144"/>
+      <c r="D32" s="145"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -11524,12 +12298,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="150"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="144"/>
+      <c r="D33" s="145"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -11537,12 +12311,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="150"/>
+      <c r="A34" s="151"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="145"/>
+      <c r="D34" s="146"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -11550,12 +12324,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="150" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="143" t="s">
+      <c r="D35" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -11563,12 +12337,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="144"/>
+      <c r="D36" s="145"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -11576,14 +12350,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="144"/>
+      <c r="D37" s="145"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -11591,12 +12365,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="144"/>
+      <c r="D38" s="145"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -11604,23 +12378,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="150"/>
+      <c r="A39" s="151"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="145"/>
+      <c r="D39" s="146"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="150" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="143"/>
+      <c r="D40" s="144"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -11628,14 +12402,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="150"/>
+      <c r="A41" s="151"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="144"/>
+      <c r="D41" s="145"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -11643,12 +12417,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="150"/>
+      <c r="A42" s="151"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="144"/>
+      <c r="D42" s="145"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -11656,32 +12430,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="150"/>
+      <c r="A43" s="151"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="144"/>
+      <c r="D43" s="145"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="151"/>
+      <c r="A44" s="152"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="145"/>
+      <c r="D44" s="146"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="143" t="s">
+      <c r="D45" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -11691,12 +12465,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="150"/>
+      <c r="A46" s="151"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="144"/>
+      <c r="D46" s="145"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -11704,14 +12478,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="150"/>
+      <c r="A47" s="151"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="144"/>
+      <c r="D47" s="145"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -11719,12 +12493,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="150"/>
+      <c r="A48" s="151"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="144"/>
+      <c r="D48" s="145"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -11732,10 +12506,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="151"/>
+      <c r="A49" s="152"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="145"/>
+      <c r="D49" s="146"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -11818,12 +12592,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="155" t="s">
+      <c r="D2" s="156" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -11835,34 +12609,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="150"/>
+      <c r="A3" s="151"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="156"/>
+      <c r="D3" s="157"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="151"/>
+      <c r="A4" s="152"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="157"/>
+      <c r="D4" s="158"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="159" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="140" t="s">
+      <c r="D5" s="141" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -11870,12 +12644,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="158"/>
+      <c r="A6" s="159"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="140"/>
+      <c r="D6" s="141"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -11883,30 +12657,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="158"/>
+      <c r="A7" s="159"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="140"/>
+      <c r="D7" s="141"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="159"/>
+      <c r="A8" s="160"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="140"/>
+      <c r="D8" s="141"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="158" t="s">
+      <c r="A9" s="159" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="143" t="s">
+      <c r="D9" s="144" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -11914,12 +12688,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="158"/>
+      <c r="A10" s="159"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="145"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -11929,12 +12703,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="158"/>
+      <c r="A11" s="159"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="145"/>
+      <c r="D11" s="146"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -11942,12 +12716,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="150" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -11955,12 +12729,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="150"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="140"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -11968,12 +12742,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="150"/>
+      <c r="A14" s="151"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="140"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -11981,62 +12755,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="151"/>
+      <c r="A15" s="152"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="150" t="s">
+      <c r="A16" s="151" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="144" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="147">
+      <c r="F16" s="148">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="150"/>
+      <c r="A17" s="151"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="147"/>
+      <c r="D17" s="145"/>
+      <c r="E17" s="145"/>
+      <c r="F17" s="148"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="150"/>
+      <c r="A18" s="151"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="145"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="148"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="149" t="s">
+      <c r="A19" s="150" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="145" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -12044,23 +12818,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="150"/>
+      <c r="A20" s="151"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="144"/>
+      <c r="D20" s="145"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="150"/>
+      <c r="A21" s="151"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="144"/>
+      <c r="D21" s="145"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -12070,34 +12844,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="150"/>
+      <c r="A22" s="151"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="144"/>
+      <c r="D22" s="145"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="151"/>
+      <c r="A23" s="152"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="145"/>
+      <c r="D23" s="146"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="150" t="s">
+      <c r="A24" s="151" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="139" t="s">
+      <c r="D24" s="140" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -12107,30 +12881,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="150"/>
+      <c r="A25" s="151"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="140"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="150"/>
+      <c r="A26" s="151"/>
       <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="140"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="150" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="143" t="s">
+      <c r="D27" s="144" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -12138,14 +12912,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="150"/>
+      <c r="A28" s="151"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="144"/>
+      <c r="D28" s="145"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -12155,12 +12929,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="150"/>
+      <c r="A29" s="151"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="144"/>
+      <c r="D29" s="145"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -12168,25 +12942,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="149" t="s">
+      <c r="A30" s="150" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="146"/>
+      <c r="D30" s="147"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="150"/>
+      <c r="A31" s="151"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="147"/>
+      <c r="D31" s="148"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -12194,12 +12968,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="150"/>
+      <c r="A32" s="151"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="147"/>
+      <c r="D32" s="148"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -12207,30 +12981,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="150"/>
+      <c r="A33" s="151"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="147"/>
+      <c r="D33" s="148"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="151"/>
+      <c r="A34" s="152"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="148"/>
+      <c r="D34" s="149"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="150" t="s">
+      <c r="A35" s="151" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="147" t="s">
+      <c r="D35" s="148" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="92"/>
@@ -12238,12 +13012,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="150"/>
+      <c r="A36" s="151"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="147"/>
+      <c r="D36" s="148"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -12253,29 +13027,29 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="150"/>
+      <c r="A37" s="151"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="147"/>
+      <c r="D37" s="148"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="150"/>
+      <c r="A38" s="151"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="147"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="151"/>
+      <c r="A39" s="152"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="148"/>
+      <c r="D39" s="149"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>

--- a/Process/PTW-Timesheet.xlsx
+++ b/Process/PTW-Timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Aspire Intern - Workshop\Year 2022\Q1\To Trainees\Your Project Name\Process\Timesheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="892" documentId="8_{D072A5B9-2EDB-49C4-A066-18FFEF268F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24889147-DA45-40EF-812C-43CD8681A1D0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DD6E672-7C1F-4E34-845B-A5644E6A7FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2167" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="695">
   <si>
     <t>Resource Name</t>
   </si>
@@ -2070,6 +2070,12 @@
   </si>
   <si>
     <t>Angular session with Saraswathi</t>
+  </si>
+  <si>
+    <t>Approval Page</t>
+  </si>
+  <si>
+    <t>ography)</t>
   </si>
   <si>
     <t>Aakaash</t>
@@ -3452,6 +3458,33 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3470,35 +3503,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3506,15 +3533,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3539,18 +3557,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3560,6 +3566,18 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3569,17 +3587,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3588,9 +3597,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4583,12 +4589,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="187" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -4600,36 +4606,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="184"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="185"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="188"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63" t="s">
@@ -4639,12 +4645,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="63" t="s">
         <v>243</v>
       </c>
@@ -4652,12 +4658,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="63" t="s">
         <v>180</v>
       </c>
@@ -4665,21 +4671,21 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="190"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -4687,14 +4693,14 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="63" t="s">
         <v>216</v>
       </c>
       <c r="C10" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -4704,23 +4710,23 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="63"/>
       <c r="C11" s="57"/>
-      <c r="D11" s="182"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="67"/>
       <c r="F11" s="64"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="178" t="s">
+      <c r="A12" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="63">
@@ -4730,12 +4736,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="178"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="66"/>
       <c r="C13" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="166"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="63" t="s">
         <v>230</v>
       </c>
@@ -4743,12 +4749,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="178"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="63" t="s">
         <v>185</v>
       </c>
@@ -4756,12 +4762,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="178"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="67" t="s">
         <v>248</v>
       </c>
       <c r="C15" s="64"/>
-      <c r="D15" s="166"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63" t="s">
         <v>194</v>
@@ -4769,50 +4775,50 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="191" t="s">
+      <c r="A16" s="184" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="178" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="192">
+      <c r="F16" s="181">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="194"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66" t="s">
@@ -4821,7 +4827,7 @@
       <c r="C19" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="179" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63" t="s">
@@ -4831,14 +4837,14 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C20" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -4848,14 +4854,14 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="178"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>256</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="63" t="s">
         <v>252</v>
       </c>
@@ -4863,25 +4869,25 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="181"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="179"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="182"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="185" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78" t="s">
@@ -4890,7 +4896,7 @@
       <c r="C24" s="62" t="s">
         <v>246</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="62" t="s">
@@ -4902,12 +4908,12 @@
       <c r="G24" s="59"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="79"/>
       <c r="C25" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="63" t="s">
         <v>257</v>
       </c>
@@ -4915,12 +4921,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="178"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="80"/>
       <c r="C26" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="63" t="s">
         <v>185</v>
       </c>
@@ -4928,21 +4934,21 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="178"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="81"/>
       <c r="C27" s="64"/>
-      <c r="D27" s="167"/>
+      <c r="D27" s="176"/>
       <c r="E27" s="63"/>
       <c r="F27" s="61"/>
       <c r="G27" s="61"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="191" t="s">
+      <c r="A28" s="184" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="66"/>
       <c r="C28" s="66"/>
-      <c r="D28" s="180" t="s">
+      <c r="D28" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="62"/>
@@ -4950,14 +4956,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="178"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C29" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D29" s="181"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="63" t="s">
         <v>106</v>
       </c>
@@ -4965,23 +4971,23 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="178"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="66"/>
       <c r="C30" s="66"/>
-      <c r="D30" s="181"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="64"/>
       <c r="F30" s="60"/>
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="191" t="s">
+      <c r="A31" s="184" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="65"/>
       <c r="C31" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D31" s="192"/>
+      <c r="D31" s="181"/>
       <c r="E31" s="60" t="s">
         <v>171</v>
       </c>
@@ -4989,14 +4995,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="178"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="182"/>
       <c r="E32" s="60" t="s">
         <v>168</v>
       </c>
@@ -5004,12 +5010,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="178"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>259</v>
       </c>
-      <c r="D33" s="193"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -5017,32 +5023,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="178"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="193"/>
+      <c r="D34" s="182"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="179"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
-      <c r="D35" s="194"/>
+      <c r="D35" s="183"/>
       <c r="E35" s="60"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="56" t="s">
         <v>246</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="179" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="82" t="s">
@@ -5052,12 +5058,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="63"/>
       <c r="C37" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -5065,14 +5071,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="66" t="s">
         <v>171</v>
       </c>
@@ -5082,11 +5088,11 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="63" t="s">
         <v>228</v>
       </c>
-      <c r="D39" s="181"/>
+      <c r="D39" s="179"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>171</v>
@@ -5094,26 +5100,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="179"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="64"/>
       <c r="C40" s="58"/>
-      <c r="D40" s="182"/>
+      <c r="D40" s="180"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="D28:D30"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5126,6 +5122,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="D28:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5174,12 +5180,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="187" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -5191,36 +5197,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="184"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="185"/>
+      <c r="A4" s="189"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
-      <c r="D4" s="188"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="57"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="181" t="s">
+      <c r="D5" s="179" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="84" t="s">
@@ -5230,14 +5236,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="66" t="s">
         <v>255</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>262</v>
       </c>
-      <c r="D6" s="181"/>
+      <c r="D6" s="179"/>
       <c r="E6" s="63" t="s">
         <v>263</v>
       </c>
@@ -5245,12 +5251,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="66" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="181"/>
+      <c r="D7" s="179"/>
       <c r="E7" s="63" t="s">
         <v>263</v>
       </c>
@@ -5258,12 +5264,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66" t="s">
         <v>265</v>
       </c>
       <c r="C8" s="66"/>
-      <c r="D8" s="181"/>
+      <c r="D8" s="179"/>
       <c r="E8" s="63" t="s">
         <v>241</v>
       </c>
@@ -5271,12 +5277,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="190"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="66" t="s">
         <v>266</v>
       </c>
       <c r="C9" s="66"/>
-      <c r="D9" s="181"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="64" t="s">
         <v>241</v>
       </c>
@@ -5284,14 +5290,14 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5301,14 +5307,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="63" t="s">
         <v>267</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="63" t="s">
         <v>263</v>
       </c>
@@ -5318,14 +5324,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="190"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="182"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="66"/>
       <c r="F12" s="64" t="s">
         <v>180</v>
@@ -5333,7 +5339,7 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="100" t="s">
@@ -5342,7 +5348,7 @@
       <c r="C13" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -5354,12 +5360,12 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="178"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="63"/>
       <c r="C14" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="63" t="s">
         <v>273</v>
       </c>
@@ -5367,12 +5373,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="178"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="64"/>
       <c r="C15" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="64" t="s">
         <v>173</v>
       </c>
@@ -5380,57 +5386,57 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="191" t="s">
+      <c r="A16" s="184" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="62" t="s">
         <v>275</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="F16" s="192">
+      <c r="F16" s="181">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="63" t="s">
         <v>276</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="63"/>
       <c r="C18" s="58" t="s">
         <v>278</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="181"/>
-      <c r="F18" s="194"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="179"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="62"/>
       <c r="C19" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="179" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="84" t="s">
@@ -5440,12 +5446,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="63"/>
       <c r="C20" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="63" t="s">
         <v>185</v>
       </c>
@@ -5453,12 +5459,12 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="178"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="76"/>
       <c r="C21" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="63"/>
       <c r="F21" s="60" t="s">
         <v>185</v>
@@ -5466,12 +5472,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="181"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60" t="s">
         <v>222</v>
@@ -5486,7 +5492,7 @@
       <c r="C23" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="165" t="s">
+      <c r="D23" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="84" t="s">
@@ -5505,7 +5511,7 @@
       <c r="C24" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="63" t="s">
         <v>273</v>
       </c>
@@ -5518,7 +5524,7 @@
       <c r="C25" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="63" t="s">
         <v>173</v>
       </c>
@@ -5529,18 +5535,18 @@
       <c r="A26" s="197"/>
       <c r="B26" s="95"/>
       <c r="C26" s="61"/>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="64"/>
       <c r="F26" s="61"/>
       <c r="G26" s="61"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="178" t="s">
+      <c r="A27" s="185" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="62"/>
       <c r="C27" s="57"/>
-      <c r="D27" s="192" t="s">
+      <c r="D27" s="181" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="60"/>
@@ -5548,12 +5554,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="178"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="63"/>
       <c r="C28" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D28" s="193"/>
+      <c r="D28" s="182"/>
       <c r="E28" s="60" t="s">
         <v>180</v>
       </c>
@@ -5561,14 +5567,14 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="178"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="63" t="s">
         <v>269</v>
       </c>
       <c r="C29" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="D29" s="193"/>
+      <c r="D29" s="182"/>
       <c r="E29" s="60" t="s">
         <v>180</v>
       </c>
@@ -5591,14 +5597,14 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="178" t="s">
+      <c r="A31" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B31" s="66"/>
       <c r="C31" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D31" s="181"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="84" t="s">
         <v>173</v>
       </c>
@@ -5606,14 +5612,14 @@
       <c r="G31" s="59"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="178"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="181"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="63" t="s">
         <v>168</v>
       </c>
@@ -5621,12 +5627,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="178"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D33" s="181"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60" t="s">
         <v>170</v>
@@ -5634,32 +5640,32 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="178"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="66"/>
       <c r="C34" s="66"/>
-      <c r="D34" s="181"/>
+      <c r="D34" s="179"/>
       <c r="E34" s="63"/>
       <c r="F34" s="60"/>
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="179"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="182"/>
+      <c r="D35" s="180"/>
       <c r="E35" s="64"/>
       <c r="F35" s="60"/>
       <c r="G35" s="61"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178" t="s">
+      <c r="A36" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="62"/>
       <c r="C36" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D36" s="165" t="s">
+      <c r="D36" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="85" t="s">
@@ -5669,12 +5675,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="63"/>
       <c r="C37" s="60" t="s">
         <v>284</v>
       </c>
-      <c r="D37" s="166"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="66" t="s">
         <v>170</v>
       </c>
@@ -5682,14 +5688,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="63" t="s">
         <v>248</v>
       </c>
       <c r="C38" s="60" t="s">
         <v>285</v>
       </c>
-      <c r="D38" s="166"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="66" t="s">
         <v>170</v>
       </c>
@@ -5699,12 +5705,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="98" t="s">
         <v>228</v>
       </c>
       <c r="C39" s="49"/>
-      <c r="D39" s="166"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="66"/>
       <c r="F39" s="93" t="s">
         <v>170</v>
@@ -5712,26 +5718,16 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="179"/>
+      <c r="A40" s="186"/>
       <c r="B40" s="64"/>
       <c r="C40" s="61"/>
-      <c r="D40" s="167"/>
+      <c r="D40" s="176"/>
       <c r="E40" s="67"/>
       <c r="F40" s="64"/>
       <c r="G40" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="D31:D35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="D36:D40"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -5744,6 +5740,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="D31:D35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="D36:D40"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5792,12 +5798,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="184" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="202" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -5809,36 +5815,36 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="179"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="200"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -5848,14 +5854,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="63" t="s">
         <v>241</v>
       </c>
@@ -5863,12 +5869,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>287</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="63" t="s">
         <v>288</v>
       </c>
@@ -5876,32 +5882,32 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="190"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>289</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -5911,14 +5917,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="63" t="s">
         <v>290</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="63" t="s">
         <v>130</v>
       </c>
@@ -5928,14 +5934,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="190"/>
+      <c r="A12" s="194"/>
       <c r="B12" s="64" t="s">
         <v>269</v>
       </c>
       <c r="C12" s="69" t="s">
         <v>292</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="66" t="s">
         <v>288</v>
       </c>
@@ -5945,14 +5951,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="178" t="s">
+      <c r="A13" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="68"/>
       <c r="C13" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E13" s="84" t="s">
@@ -5964,23 +5970,23 @@
       <c r="G13" s="59"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="178"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="68"/>
       <c r="C14" s="63" t="s">
         <v>293</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="98"/>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="178"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="66"/>
       <c r="C15" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
@@ -5988,12 +5994,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="178"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="63" t="s">
         <v>296</v>
       </c>
@@ -6001,12 +6007,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="67"/>
       <c r="C17" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="167"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="64" t="s">
         <v>298</v>
       </c>
@@ -6014,57 +6020,57 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="191" t="s">
+      <c r="A18" s="184" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="63"/>
       <c r="C18" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D18" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E18" s="179" t="s">
         <v>156</v>
       </c>
-      <c r="F18" s="192">
+      <c r="F18" s="181">
         <v>1</v>
       </c>
       <c r="G18" s="59"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="178"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="63" t="s">
         <v>299</v>
       </c>
       <c r="C19" s="77" t="s">
         <v>300</v>
       </c>
-      <c r="D19" s="181"/>
-      <c r="E19" s="181"/>
-      <c r="F19" s="193"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="179"/>
+      <c r="F19" s="182"/>
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="63"/>
       <c r="C20" s="58" t="s">
         <v>301</v>
       </c>
-      <c r="D20" s="182"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="194"/>
+      <c r="D20" s="180"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="183"/>
       <c r="G20" s="61"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="62"/>
       <c r="C21" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D21" s="181" t="s">
+      <c r="D21" s="179" t="s">
         <v>227</v>
       </c>
       <c r="E21" s="84" t="s">
@@ -6074,12 +6080,12 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="63"/>
       <c r="C22" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="D22" s="181"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="63" t="s">
         <v>185</v>
       </c>
@@ -6087,12 +6093,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="178"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="76"/>
       <c r="C23" s="57" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60" t="s">
         <v>185</v>
@@ -6100,12 +6106,12 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="178"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C24" s="57"/>
-      <c r="D24" s="181"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="63"/>
       <c r="F24" s="60" t="s">
         <v>222</v>
@@ -6120,7 +6126,7 @@
       <c r="C25" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="165" t="s">
+      <c r="D25" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E25" s="84" t="s">
@@ -6132,12 +6138,12 @@
       <c r="G25" s="59"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="204"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="97"/>
       <c r="C26" s="60" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="98" t="s">
         <v>130</v>
       </c>
@@ -6150,7 +6156,7 @@
       <c r="C27" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="63" t="s">
         <v>130</v>
       </c>
@@ -6163,7 +6169,7 @@
       <c r="C28" s="63" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="166"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="63" t="s">
         <v>296</v>
       </c>
@@ -6176,7 +6182,7 @@
       <c r="C29" s="64" t="s">
         <v>297</v>
       </c>
-      <c r="D29" s="166"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="64" t="s">
         <v>298</v>
       </c>
@@ -6184,14 +6190,14 @@
       <c r="G29" s="61"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="178" t="s">
+      <c r="A30" s="185" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="62"/>
       <c r="C30" s="57" t="s">
         <v>280</v>
       </c>
-      <c r="D30" s="192" t="s">
+      <c r="D30" s="181" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="60" t="s">
@@ -6201,12 +6207,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="178"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="63"/>
       <c r="C31" s="57" t="s">
         <v>291</v>
       </c>
-      <c r="D31" s="193"/>
+      <c r="D31" s="182"/>
       <c r="E31" s="60"/>
       <c r="F31" s="60" t="s">
         <v>130</v>
@@ -6214,14 +6220,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="178"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C32" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="182"/>
       <c r="E32" s="60" t="s">
         <v>191</v>
       </c>
@@ -6242,14 +6248,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="179" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="84" t="s">
@@ -6259,14 +6265,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="178"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="181"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="63" t="s">
         <v>168</v>
       </c>
@@ -6274,12 +6280,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="63"/>
       <c r="F36" s="60" t="s">
         <v>170</v>
@@ -6287,12 +6293,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="63" t="s">
         <v>298</v>
       </c>
@@ -6300,23 +6306,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="179"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66"/>
-      <c r="D38" s="181"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="64"/>
       <c r="F38" s="60"/>
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="198" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="77" t="s">
@@ -6326,12 +6332,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>294</v>
       </c>
-      <c r="D40" s="202"/>
+      <c r="D40" s="199"/>
       <c r="E40" s="57" t="s">
         <v>170</v>
       </c>
@@ -6339,14 +6345,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66" t="s">
         <v>248</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>304</v>
       </c>
-      <c r="D41" s="202"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="57" t="s">
         <v>288</v>
       </c>
@@ -6356,38 +6362,28 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="76"/>
-      <c r="D42" s="202"/>
+      <c r="D42" s="199"/>
       <c r="F42" s="101" t="s">
         <v>239</v>
       </c>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="203"/>
+      <c r="D43" s="200"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="D25:D29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="D30:D32"/>
     <mergeCell ref="F18:F20"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -6400,6 +6396,16 @@
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="D18:D20"/>
     <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="D25:D29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="D30:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6448,12 +6454,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66"/>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="205" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -6465,36 +6471,36 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="63"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="179"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="200"/>
+      <c r="D4" s="204"/>
       <c r="E4" s="64"/>
       <c r="F4" s="61"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="98" t="s">
@@ -6504,14 +6510,14 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="63" t="s">
         <v>307</v>
       </c>
@@ -6519,12 +6525,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="87" t="s">
         <v>308</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -6532,12 +6538,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64" t="s">
         <v>310</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="64" t="s">
         <v>311</v>
       </c>
@@ -6545,23 +6551,23 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="190"/>
+      <c r="A9" s="194"/>
       <c r="B9" s="66"/>
       <c r="C9" s="64"/>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="64"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189" t="s">
+      <c r="A10" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="62"/>
       <c r="C10" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E10" s="85" t="s">
@@ -6571,14 +6577,14 @@
       <c r="G10" s="59"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="63" t="s">
         <v>313</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="63" t="s">
         <v>132</v>
       </c>
@@ -6586,12 +6592,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="63"/>
       <c r="C12" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="66" t="s">
         <v>180</v>
       </c>
@@ -6599,23 +6605,23 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="190"/>
+      <c r="A13" s="194"/>
       <c r="B13" s="64"/>
       <c r="C13" s="58"/>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="66"/>
       <c r="F13" s="64"/>
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="68"/>
       <c r="C14" s="107" t="s">
         <v>261</v>
       </c>
-      <c r="D14" s="165" t="s">
+      <c r="D14" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E14" s="84" t="s">
@@ -6625,12 +6631,12 @@
       <c r="G14" s="59"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="178"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="68"/>
       <c r="C15" s="63" t="s">
         <v>316</v>
       </c>
-      <c r="D15" s="166"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="98" t="s">
         <v>132</v>
       </c>
@@ -6638,12 +6644,12 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="178"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="66"/>
       <c r="C16" s="63" t="s">
         <v>317</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="95" t="s">
         <v>132</v>
       </c>
@@ -6651,12 +6657,12 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="66" t="s">
         <v>318</v>
       </c>
       <c r="C17" s="63"/>
-      <c r="D17" s="166"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="63"/>
       <c r="F17" s="60" t="s">
         <v>185</v>
@@ -6664,64 +6670,64 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="67"/>
       <c r="C18" s="64"/>
-      <c r="D18" s="167"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="64"/>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="184" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="63"/>
       <c r="C19" s="63" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E19" s="179" t="s">
         <v>320</v>
       </c>
-      <c r="F19" s="192"/>
+      <c r="F19" s="181"/>
       <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="63" t="s">
         <v>321</v>
       </c>
       <c r="C20" s="77" t="s">
         <v>322</v>
       </c>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="193"/>
+      <c r="D20" s="179"/>
+      <c r="E20" s="179"/>
+      <c r="F20" s="182"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="178"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="63"/>
       <c r="C21" s="58" t="s">
         <v>323</v>
       </c>
-      <c r="D21" s="182"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="194"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="183"/>
       <c r="G21" s="61"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="191" t="s">
+      <c r="A22" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B22" s="62"/>
       <c r="C22" s="59" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="181" t="s">
+      <c r="D22" s="179" t="s">
         <v>227</v>
       </c>
       <c r="E22" s="84" t="s">
@@ -6731,12 +6737,12 @@
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="178"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="63"/>
       <c r="C23" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="179"/>
       <c r="E23" s="63" t="s">
         <v>176</v>
       </c>
@@ -6744,14 +6750,14 @@
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="178"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="63" t="s">
         <v>325</v>
       </c>
       <c r="C24" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="181"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="63" t="s">
         <v>185</v>
       </c>
@@ -6759,14 +6765,14 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="63" t="s">
         <v>255</v>
       </c>
       <c r="C25" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="181"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="63" t="s">
         <v>309</v>
       </c>
@@ -6783,7 +6789,7 @@
       <c r="C26" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D26" s="165" t="s">
+      <c r="D26" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="84" t="s">
@@ -6793,14 +6799,14 @@
       <c r="G26" s="59"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="204"/>
+      <c r="A27" s="201"/>
       <c r="B27" s="83" t="s">
         <v>328</v>
       </c>
       <c r="C27" s="98" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="98" t="s">
         <v>330</v>
       </c>
@@ -6813,7 +6819,7 @@
       <c r="C28" s="63" t="s">
         <v>331</v>
       </c>
-      <c r="D28" s="166"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="63" t="s">
         <v>309</v>
       </c>
@@ -6826,7 +6832,7 @@
       <c r="C29" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="D29" s="166"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="63" t="s">
         <v>173</v>
       </c>
@@ -6834,12 +6840,12 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="205"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="108"/>
       <c r="C30" s="63" t="s">
         <v>310</v>
       </c>
-      <c r="D30" s="166"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="63" t="s">
         <v>311</v>
       </c>
@@ -6847,14 +6853,14 @@
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="206" t="s">
+      <c r="A31" s="207" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="109"/>
       <c r="C31" s="110" t="s">
         <v>333</v>
       </c>
-      <c r="D31" s="207" t="s">
+      <c r="D31" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="109" t="s">
@@ -6864,14 +6870,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="163"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="60" t="s">
         <v>334</v>
       </c>
       <c r="C32" s="57" t="s">
         <v>335</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="182"/>
       <c r="E32" s="60" t="s">
         <v>132</v>
       </c>
@@ -6879,12 +6885,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="164"/>
+      <c r="A33" s="173"/>
       <c r="B33" s="61"/>
       <c r="C33" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="D33" s="194"/>
+      <c r="D33" s="183"/>
       <c r="E33" s="61"/>
       <c r="F33" s="61" t="s">
         <v>180</v>
@@ -6892,14 +6898,14 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="178" t="s">
+      <c r="A34" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B34" s="66"/>
       <c r="C34" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="179" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="98" t="s">
@@ -6909,14 +6915,14 @@
       <c r="G34" s="59"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="178"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="66" t="s">
         <v>337</v>
       </c>
       <c r="C35" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="D35" s="181"/>
+      <c r="D35" s="179"/>
       <c r="E35" s="63" t="s">
         <v>170</v>
       </c>
@@ -6924,12 +6930,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>339</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="63" t="s">
         <v>241</v>
       </c>
@@ -6937,12 +6943,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="66"/>
       <c r="C37" s="66" t="s">
         <v>340</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="63" t="s">
         <v>170</v>
       </c>
@@ -6950,12 +6956,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="179"/>
+      <c r="A38" s="186"/>
       <c r="B38" s="67"/>
       <c r="C38" s="66" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="64" t="s">
         <v>342</v>
       </c>
@@ -6963,14 +6969,14 @@
       <c r="G38" s="61"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="201" t="s">
+      <c r="D39" s="198" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="46" t="s">
@@ -6980,12 +6986,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66"/>
       <c r="C40" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D40" s="202"/>
+      <c r="D40" s="199"/>
       <c r="E40" s="77" t="s">
         <v>344</v>
       </c>
@@ -6993,14 +6999,14 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66" t="s">
         <v>345</v>
       </c>
       <c r="C41" s="63" t="s">
         <v>346</v>
       </c>
-      <c r="D41" s="202"/>
+      <c r="D41" s="199"/>
       <c r="E41" s="57" t="s">
         <v>170</v>
       </c>
@@ -7010,25 +7016,35 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66"/>
       <c r="C42" s="93"/>
-      <c r="D42" s="202"/>
+      <c r="D42" s="199"/>
       <c r="E42" s="46"/>
       <c r="F42" s="101"/>
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="67"/>
       <c r="C43" s="99"/>
-      <c r="D43" s="203"/>
+      <c r="D43" s="200"/>
       <c r="E43" s="58"/>
       <c r="F43" s="64"/>
       <c r="G43" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A34:A38"/>
+    <mergeCell ref="D34:D38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="D31:D33"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -7041,16 +7057,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="D19:D21"/>
     <mergeCell ref="E19:E21"/>
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="D34:D38"/>
-    <mergeCell ref="A39:A43"/>
-    <mergeCell ref="D39:D43"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="D31:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7096,14 +7102,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="205" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -7115,14 +7121,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="178"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="66" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>348</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="63" t="s">
         <v>349</v>
       </c>
@@ -7130,12 +7136,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="179"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>350</v>
       </c>
-      <c r="D5" s="200"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="63" t="s">
         <v>351</v>
       </c>
@@ -7143,14 +7149,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -7160,12 +7166,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="63" t="s">
         <v>309</v>
       </c>
@@ -7173,14 +7179,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63" t="s">
         <v>185</v>
       </c>
@@ -7188,32 +7194,32 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63"/>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="166"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -7223,12 +7229,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>261</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="63" t="s">
         <v>180</v>
       </c>
@@ -7236,14 +7242,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -7253,14 +7259,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="189"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="63" t="s">
         <v>359</v>
       </c>
       <c r="C14" s="77" t="s">
         <v>315</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="66" t="s">
         <v>180</v>
       </c>
@@ -7268,12 +7274,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="190"/>
+      <c r="A15" s="194"/>
       <c r="B15" s="63"/>
       <c r="C15" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="181"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="66" t="s">
         <v>351</v>
       </c>
@@ -7281,14 +7287,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>361</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -7298,14 +7304,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="98" t="s">
         <v>362</v>
       </c>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -7313,14 +7319,14 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="87" t="s">
         <v>255</v>
       </c>
       <c r="C18" s="60" t="s">
         <v>364</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="63" t="s">
         <v>130</v>
       </c>
@@ -7330,12 +7336,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="178"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="64"/>
       <c r="C19" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="D19" s="167"/>
+      <c r="D19" s="176"/>
       <c r="E19" s="64" t="s">
         <v>130</v>
       </c>
@@ -7343,66 +7349,66 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="171" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="57"/>
       <c r="C20" s="63" t="s">
         <v>366</v>
       </c>
-      <c r="D20" s="192" t="s">
+      <c r="D20" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="192" t="s">
+      <c r="E20" s="181" t="s">
         <v>367</v>
       </c>
-      <c r="F20" s="180"/>
-      <c r="G20" s="192"/>
+      <c r="F20" s="178"/>
+      <c r="G20" s="181"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="163"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="60"/>
       <c r="C21" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="193"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="182"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="163"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="60" t="s">
         <v>321</v>
       </c>
       <c r="C22" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="193"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="182"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="163"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="193"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="182"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="162" t="s">
+      <c r="A24" s="171" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="56"/>
       <c r="C24" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="174" t="s">
         <v>227</v>
       </c>
       <c r="E24" s="117" t="s">
@@ -7412,12 +7418,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="163"/>
+      <c r="A25" s="172"/>
       <c r="B25" s="57"/>
       <c r="C25" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="85" t="s">
         <v>173</v>
       </c>
@@ -7425,12 +7431,12 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="163"/>
+      <c r="A26" s="172"/>
       <c r="B26" s="57"/>
       <c r="C26" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="66" t="s">
         <v>374</v>
       </c>
@@ -7438,14 +7444,14 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="163"/>
+      <c r="A27" s="172"/>
       <c r="B27" s="57" t="s">
         <v>325</v>
       </c>
       <c r="C27" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="66" t="s">
         <v>309</v>
       </c>
@@ -7453,12 +7459,12 @@
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="163"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="55" t="s">
         <v>255</v>
       </c>
       <c r="C28" s="64"/>
-      <c r="D28" s="167"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="67" t="s">
         <v>309</v>
       </c>
@@ -7473,7 +7479,7 @@
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -7490,7 +7496,7 @@
       <c r="C30" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="D30" s="166"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="98" t="s">
         <v>378</v>
       </c>
@@ -7503,7 +7509,7 @@
       <c r="C31" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="63" t="s">
         <v>309</v>
       </c>
@@ -7516,7 +7522,7 @@
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="63" t="s">
         <v>381</v>
       </c>
@@ -7529,7 +7535,7 @@
       <c r="C33" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="63" t="s">
         <v>311</v>
       </c>
@@ -7537,14 +7543,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="172" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="109"/>
       <c r="C34" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="D34" s="207" t="s">
+      <c r="D34" s="208" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="109" t="s">
@@ -7554,12 +7560,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="163"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="60"/>
       <c r="C35" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="193"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="60" t="s">
         <v>130</v>
       </c>
@@ -7567,14 +7573,14 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="163"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="60" t="s">
         <v>385</v>
       </c>
       <c r="C36" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="193"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -7582,12 +7588,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="163"/>
+      <c r="A37" s="172"/>
       <c r="B37" s="60"/>
       <c r="C37" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="D37" s="193"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="60" t="s">
         <v>191</v>
       </c>
@@ -7595,23 +7601,23 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="164"/>
+      <c r="A38" s="173"/>
       <c r="B38" s="61"/>
       <c r="C38" s="111"/>
-      <c r="D38" s="194"/>
+      <c r="D38" s="183"/>
       <c r="E38" s="61"/>
       <c r="F38" s="61"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178" t="s">
+      <c r="A39" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="179" t="s">
         <v>24</v>
       </c>
       <c r="E39" s="98" t="s">
@@ -7621,14 +7627,14 @@
       <c r="G39" s="59"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66" t="s">
         <v>388</v>
       </c>
       <c r="C40" s="68" t="s">
         <v>389</v>
       </c>
-      <c r="D40" s="181"/>
+      <c r="D40" s="179"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -7636,12 +7642,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D41" s="181"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="63" t="s">
         <v>241</v>
       </c>
@@ -7649,12 +7655,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D42" s="181"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -7662,78 +7668,67 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="67"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="181"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="62"/>
-      <c r="D44" s="201"/>
+      <c r="D44" s="198"/>
       <c r="E44" s="46"/>
       <c r="F44" s="62"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="178"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63"/>
-      <c r="D45" s="202"/>
+      <c r="D45" s="199"/>
       <c r="E45" s="77"/>
       <c r="F45" s="63"/>
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="178"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="66" t="s">
         <v>245</v>
       </c>
       <c r="C46" s="63" t="s">
         <v>245</v>
       </c>
-      <c r="D46" s="202"/>
+      <c r="D46" s="199"/>
       <c r="E46" s="57"/>
       <c r="F46" s="63"/>
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="178"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="202"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="179"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="203"/>
+      <c r="D48" s="200"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D11:D15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="D16:D19"/>
     <mergeCell ref="A24:A28"/>
@@ -7746,6 +7741,17 @@
     <mergeCell ref="D39:D43"/>
     <mergeCell ref="D34:D38"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="F20:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7791,14 +7797,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="205" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -7810,12 +7816,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="178"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D4" s="208"/>
+      <c r="D4" s="205"/>
       <c r="E4" s="63" t="s">
         <v>288</v>
       </c>
@@ -7823,14 +7829,14 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="178"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="66" t="s">
         <v>394</v>
       </c>
       <c r="C5" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D5" s="199"/>
+      <c r="D5" s="203"/>
       <c r="E5" s="63" t="s">
         <v>395</v>
       </c>
@@ -7838,12 +7844,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="179"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="67"/>
       <c r="C6" s="66" t="s">
         <v>396</v>
       </c>
-      <c r="D6" s="200"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="63" t="s">
         <v>397</v>
       </c>
@@ -7851,12 +7857,12 @@
       <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="62"/>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="84"/>
@@ -7864,54 +7870,54 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66"/>
       <c r="C8" s="63"/>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="63"/>
       <c r="F9" s="60"/>
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="66"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="166"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="63"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="66"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="166"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="64"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="85" t="s">
@@ -7921,12 +7927,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63"/>
       <c r="C13" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="63" t="s">
         <v>358</v>
       </c>
@@ -7934,14 +7940,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="189"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="63" t="s">
         <v>356</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="63" t="s">
         <v>180</v>
       </c>
@@ -7949,12 +7955,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="189"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="63" t="s">
         <v>399</v>
       </c>
       <c r="C15" s="77"/>
-      <c r="D15" s="181"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="66"/>
       <c r="F15" s="63" t="s">
         <v>400</v>
@@ -7962,14 +7968,14 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="171" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="118"/>
       <c r="C16" s="62" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -7979,14 +7985,14 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="163"/>
+      <c r="A17" s="172"/>
       <c r="B17" s="77" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -7996,12 +8002,12 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="164"/>
+      <c r="A18" s="173"/>
       <c r="B18" s="119"/>
       <c r="C18" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D18" s="166"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="63" t="s">
         <v>288</v>
       </c>
@@ -8011,97 +8017,97 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="172" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="192" t="s">
+      <c r="E19" s="181" t="s">
         <v>405</v>
       </c>
-      <c r="F19" s="180"/>
-      <c r="G19" s="192"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="181"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="163"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="60"/>
       <c r="C20" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="193"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="182"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="163"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="60" t="s">
         <v>406</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>407</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="193"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="182"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="163"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="60"/>
       <c r="C22" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="193"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="182"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="163"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="193"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="182"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="116"/>
-      <c r="D24" s="165"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="117"/>
       <c r="F24" s="65"/>
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="66"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="85"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="178"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="66" t="s">
         <v>216</v>
       </c>
@@ -8113,19 +8119,19 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="178"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="178"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="120"/>
       <c r="C28" s="64"/>
-      <c r="D28" s="167"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="G28" s="64"/>
@@ -8138,7 +8144,7 @@
       <c r="C29" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -8155,7 +8161,7 @@
       <c r="C30" s="63" t="s">
         <v>411</v>
       </c>
-      <c r="D30" s="166"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="63" t="s">
         <v>412</v>
       </c>
@@ -8168,7 +8174,7 @@
       <c r="C31" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="63" t="s">
         <v>288</v>
       </c>
@@ -8181,7 +8187,7 @@
       <c r="C32" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="63" t="s">
         <v>413</v>
       </c>
@@ -8189,12 +8195,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="206"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="115"/>
       <c r="C33" s="63" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="63" t="s">
         <v>415</v>
       </c>
@@ -8202,14 +8208,14 @@
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="171" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="56" t="s">
         <v>416</v>
       </c>
-      <c r="D34" s="192" t="s">
+      <c r="D34" s="181" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="59" t="s">
@@ -8219,12 +8225,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="163"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="60"/>
       <c r="C35" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D35" s="193"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="63" t="s">
         <v>288</v>
       </c>
@@ -8232,12 +8238,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="163"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="60"/>
       <c r="C36" s="77" t="s">
         <v>386</v>
       </c>
-      <c r="D36" s="193"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -8245,14 +8251,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="164"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="61" t="s">
         <v>417</v>
       </c>
       <c r="C37" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="61" t="s">
         <v>130</v>
       </c>
@@ -8260,14 +8266,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="93" t="s">
         <v>419</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="98" t="s">
@@ -8277,14 +8283,14 @@
       <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="66" t="s">
         <v>421</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="166"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="63" t="s">
         <v>243</v>
       </c>
@@ -8292,12 +8298,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>423</v>
       </c>
-      <c r="D40" s="166"/>
+      <c r="D40" s="175"/>
       <c r="E40" s="63" t="s">
         <v>243</v>
       </c>
@@ -8305,12 +8311,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D41" s="166"/>
+      <c r="D41" s="175"/>
       <c r="E41" s="63" t="s">
         <v>288</v>
       </c>
@@ -8318,12 +8324,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66"/>
       <c r="C42" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="D42" s="166"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="63" t="s">
         <v>170</v>
       </c>
@@ -8331,25 +8337,25 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="179"/>
+      <c r="A43" s="186"/>
       <c r="B43" s="67"/>
       <c r="C43" s="64" t="s">
         <v>425</v>
       </c>
-      <c r="D43" s="166"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="64"/>
       <c r="F43" s="60"/>
       <c r="G43" s="61"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="66"/>
       <c r="C44" s="63" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="201"/>
+      <c r="D44" s="198"/>
       <c r="E44" s="46" t="s">
         <v>180</v>
       </c>
@@ -8357,12 +8363,12 @@
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="178"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="66"/>
       <c r="C45" s="63" t="s">
         <v>426</v>
       </c>
-      <c r="D45" s="202"/>
+      <c r="D45" s="199"/>
       <c r="E45" s="77" t="s">
         <v>239</v>
       </c>
@@ -8370,14 +8376,14 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="178"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C46" s="66" t="s">
         <v>403</v>
       </c>
-      <c r="D46" s="202"/>
+      <c r="D46" s="199"/>
       <c r="E46" s="63" t="s">
         <v>288</v>
       </c>
@@ -8385,25 +8391,36 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="178"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="66"/>
       <c r="C47" s="93"/>
-      <c r="D47" s="202"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="46"/>
       <c r="F47" s="101"/>
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="179"/>
+      <c r="A48" s="186"/>
       <c r="B48" s="67"/>
       <c r="C48" s="99"/>
-      <c r="D48" s="203"/>
+      <c r="D48" s="200"/>
       <c r="E48" s="58"/>
       <c r="F48" s="64"/>
       <c r="G48" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
     <mergeCell ref="A38:A43"/>
     <mergeCell ref="D38:D43"/>
     <mergeCell ref="A44:A48"/>
@@ -8416,17 +8433,6 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8475,14 +8481,14 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="66"/>
       <c r="C3" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="208" t="s">
+      <c r="D3" s="205" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="63" t="s">
@@ -8494,14 +8500,14 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="178"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="66" t="s">
         <v>428</v>
       </c>
       <c r="C4" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D4" s="199"/>
+      <c r="D4" s="203"/>
       <c r="E4" s="63" t="s">
         <v>180</v>
       </c>
@@ -8509,7 +8515,7 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="178"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66" t="s">
         <v>429</v>
@@ -8522,12 +8528,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="179"/>
+      <c r="A6" s="186"/>
       <c r="B6" s="67"/>
       <c r="C6" s="66" t="s">
         <v>430</v>
       </c>
-      <c r="D6" s="200"/>
+      <c r="D6" s="204"/>
       <c r="E6" s="63" t="s">
         <v>238</v>
       </c>
@@ -8535,14 +8541,14 @@
       <c r="G6" s="61"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189" t="s">
+      <c r="A7" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E7" s="84" t="s">
@@ -8552,12 +8558,12 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66"/>
       <c r="C8" s="121" t="s">
         <v>431</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="84" t="s">
         <v>180</v>
       </c>
@@ -8565,14 +8571,14 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66" t="s">
         <v>432</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="63" t="s">
         <v>239</v>
       </c>
@@ -8580,32 +8586,32 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="66"/>
       <c r="C10" s="63"/>
-      <c r="D10" s="166"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="63"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="66"/>
       <c r="C11" s="64"/>
-      <c r="D11" s="166"/>
+      <c r="D11" s="175"/>
       <c r="E11" s="64"/>
       <c r="F11" s="60"/>
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="85" t="s">
@@ -8615,12 +8621,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63"/>
       <c r="C13" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="63" t="s">
         <v>358</v>
       </c>
@@ -8628,14 +8634,14 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="189"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="63" t="s">
         <v>435</v>
       </c>
       <c r="C14" s="57" t="s">
         <v>386</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="63" t="s">
         <v>180</v>
       </c>
@@ -8643,23 +8649,23 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="189"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="63"/>
       <c r="C15" s="77"/>
-      <c r="D15" s="181"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="66"/>
       <c r="F15" s="63"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="191" t="s">
+      <c r="A16" s="184" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="100"/>
       <c r="C16" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D16" s="165" t="s">
+      <c r="D16" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="84" t="s">
@@ -8669,12 +8675,12 @@
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="98"/>
       <c r="C17" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="98" t="s">
         <v>363</v>
       </c>
@@ -8682,12 +8688,12 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="179"/>
+      <c r="A18" s="186"/>
       <c r="B18" s="122" t="s">
         <v>402</v>
       </c>
       <c r="C18" s="61"/>
-      <c r="D18" s="166"/>
+      <c r="D18" s="175"/>
       <c r="E18" s="63" t="s">
         <v>191</v>
       </c>
@@ -8695,65 +8701,65 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="163" t="s">
+      <c r="A19" s="172" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="57"/>
       <c r="C19" s="63"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="180"/>
-      <c r="G19" s="192"/>
+      <c r="D19" s="181"/>
+      <c r="E19" s="181"/>
+      <c r="F19" s="178"/>
+      <c r="G19" s="181"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="163"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="60"/>
       <c r="C20" s="63"/>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="193"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
+      <c r="F20" s="179"/>
+      <c r="G20" s="182"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="163"/>
+      <c r="A21" s="172"/>
       <c r="B21" s="60" t="s">
         <v>216</v>
       </c>
       <c r="C21" s="77" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193"/>
-      <c r="F21" s="181"/>
-      <c r="G21" s="193"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="179"/>
+      <c r="G21" s="182"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="163"/>
+      <c r="A22" s="172"/>
       <c r="B22" s="60"/>
       <c r="C22" s="66"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="193"/>
+      <c r="D22" s="182"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="179"/>
+      <c r="G22" s="182"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="163"/>
+      <c r="A23" s="172"/>
       <c r="B23" s="60"/>
       <c r="C23" s="57"/>
-      <c r="D23" s="193"/>
-      <c r="E23" s="193"/>
-      <c r="F23" s="181"/>
-      <c r="G23" s="193"/>
+      <c r="D23" s="182"/>
+      <c r="E23" s="182"/>
+      <c r="F23" s="179"/>
+      <c r="G23" s="182"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="65"/>
       <c r="C24" s="107" t="s">
         <v>386</v>
       </c>
-      <c r="D24" s="165"/>
+      <c r="D24" s="174"/>
       <c r="E24" s="84" t="s">
         <v>180</v>
       </c>
@@ -8761,12 +8767,12 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="66"/>
       <c r="C25" s="62" t="s">
         <v>431</v>
       </c>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="84" t="s">
         <v>180</v>
       </c>
@@ -8774,14 +8780,14 @@
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="178"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="66" t="s">
         <v>432</v>
       </c>
       <c r="C26" s="63" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="63" t="s">
         <v>239</v>
       </c>
@@ -8789,19 +8795,19 @@
       <c r="G26" s="63"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="178"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="66"/>
       <c r="F27" s="66"/>
       <c r="G27" s="63"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="178"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="120"/>
       <c r="C28" s="63"/>
-      <c r="D28" s="167"/>
+      <c r="D28" s="176"/>
       <c r="E28" s="67"/>
       <c r="F28" s="67"/>
       <c r="G28" s="64"/>
@@ -8814,7 +8820,7 @@
       <c r="C29" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="D29" s="166" t="s">
+      <c r="D29" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="98" t="s">
@@ -8829,7 +8835,7 @@
         <v>437</v>
       </c>
       <c r="C30" s="76"/>
-      <c r="D30" s="166"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="63" t="s">
         <v>438</v>
       </c>
@@ -8842,7 +8848,7 @@
       <c r="C31" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D31" s="166"/>
+      <c r="D31" s="175"/>
       <c r="E31" s="63" t="s">
         <v>440</v>
       </c>
@@ -8855,7 +8861,7 @@
       <c r="C32" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="63" t="s">
         <v>138</v>
       </c>
@@ -8863,23 +8869,23 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="206"/>
+      <c r="A33" s="207"/>
       <c r="B33" s="115"/>
       <c r="C33" s="64"/>
-      <c r="D33" s="166"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="63"/>
       <c r="F33" s="60"/>
       <c r="G33" s="61"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="162" t="s">
+      <c r="A34" s="171" t="s">
         <v>29</v>
       </c>
       <c r="B34" s="59"/>
       <c r="C34" s="57" t="s">
         <v>354</v>
       </c>
-      <c r="D34" s="192" t="s">
+      <c r="D34" s="181" t="s">
         <v>24</v>
       </c>
       <c r="E34" s="59" t="s">
@@ -8889,14 +8895,14 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="163"/>
+      <c r="A35" s="172"/>
       <c r="B35" s="60" t="s">
         <v>441</v>
       </c>
       <c r="C35" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D35" s="193"/>
+      <c r="D35" s="182"/>
       <c r="E35" s="63" t="s">
         <v>180</v>
       </c>
@@ -8904,12 +8910,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="163"/>
+      <c r="A36" s="172"/>
       <c r="B36" s="60"/>
       <c r="C36" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="D36" s="193"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="60" t="s">
         <v>180</v>
       </c>
@@ -8917,12 +8923,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="164"/>
+      <c r="A37" s="173"/>
       <c r="B37" s="61"/>
       <c r="C37" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="D37" s="194"/>
+      <c r="D37" s="183"/>
       <c r="E37" s="61" t="s">
         <v>130</v>
       </c>
@@ -8930,14 +8936,14 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178" t="s">
+      <c r="A38" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B38" s="66"/>
       <c r="C38" s="116" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="166" t="s">
+      <c r="D38" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E38" s="98" t="s">
@@ -8947,14 +8953,14 @@
       <c r="G38" s="59"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="66" t="s">
         <v>444</v>
       </c>
       <c r="C39" s="63" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="166"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="63" t="s">
         <v>446</v>
       </c>
@@ -8962,12 +8968,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="D40" s="166"/>
+      <c r="D40" s="175"/>
       <c r="E40" s="63" t="s">
         <v>173</v>
       </c>
@@ -8975,12 +8981,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66"/>
       <c r="C41" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="D41" s="166"/>
+      <c r="D41" s="175"/>
       <c r="E41" s="63" t="s">
         <v>238</v>
       </c>
@@ -8988,12 +8994,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66"/>
       <c r="C42" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="D42" s="166"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="63" t="s">
         <v>450</v>
       </c>
@@ -9001,41 +9007,41 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="178"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="66"/>
       <c r="C43" s="63"/>
-      <c r="D43" s="166"/>
+      <c r="D43" s="175"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="178"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="66"/>
       <c r="C44" s="63"/>
-      <c r="D44" s="166"/>
+      <c r="D44" s="175"/>
       <c r="E44" s="63"/>
       <c r="F44" s="60"/>
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="179"/>
+      <c r="A45" s="186"/>
       <c r="B45" s="67"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="166"/>
+      <c r="D45" s="175"/>
       <c r="E45" s="64"/>
       <c r="F45" s="60"/>
       <c r="G45" s="61"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="66"/>
       <c r="C46" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="D46" s="201"/>
+      <c r="D46" s="198"/>
       <c r="E46" s="46" t="s">
         <v>165</v>
       </c>
@@ -9043,12 +9049,12 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="178"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="66"/>
       <c r="C47" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="D47" s="202"/>
+      <c r="D47" s="199"/>
       <c r="E47" s="77" t="s">
         <v>263</v>
       </c>
@@ -9056,14 +9062,14 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="178"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="66" t="s">
         <v>427</v>
       </c>
       <c r="C48" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D48" s="202"/>
+      <c r="D48" s="199"/>
       <c r="E48" s="63" t="s">
         <v>453</v>
       </c>
@@ -9071,25 +9077,36 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="178"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="66"/>
       <c r="C49" s="93"/>
-      <c r="D49" s="202"/>
+      <c r="D49" s="199"/>
       <c r="E49" s="46"/>
       <c r="F49" s="101"/>
       <c r="G49" s="60"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="179"/>
+      <c r="A50" s="186"/>
       <c r="B50" s="67"/>
       <c r="C50" s="99"/>
-      <c r="D50" s="203"/>
+      <c r="D50" s="200"/>
       <c r="E50" s="58"/>
       <c r="F50" s="64"/>
       <c r="G50" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="D3:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="E19:E23"/>
     <mergeCell ref="A38:A45"/>
     <mergeCell ref="D38:D45"/>
     <mergeCell ref="A46:A50"/>
@@ -9102,17 +9119,6 @@
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="D34:D37"/>
     <mergeCell ref="F19:F23"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="D16:D18"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="D3:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="D12:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9161,14 +9167,14 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="178" t="s">
+      <c r="A2" s="185" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="66"/>
       <c r="C2" s="66" t="s">
         <v>392</v>
       </c>
-      <c r="D2" s="208" t="s">
+      <c r="D2" s="205" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="63" t="s">
@@ -9180,14 +9186,14 @@
       <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="66" t="s">
         <v>454</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="203"/>
       <c r="E3" s="63" t="s">
         <v>180</v>
       </c>
@@ -9195,7 +9201,7 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="178"/>
+      <c r="A4" s="185"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>455</v>
@@ -9208,12 +9214,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="179"/>
+      <c r="A5" s="186"/>
       <c r="B5" s="67"/>
       <c r="C5" s="66" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="200"/>
+      <c r="D5" s="204"/>
       <c r="E5" s="63" t="s">
         <v>457</v>
       </c>
@@ -9221,14 +9227,14 @@
       <c r="G5" s="61"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189" t="s">
+      <c r="A6" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="D6" s="166" t="s">
+      <c r="D6" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="84" t="s">
@@ -9238,12 +9244,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="98" t="s">
         <v>170</v>
       </c>
@@ -9251,14 +9257,14 @@
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189"/>
+      <c r="A8" s="193"/>
       <c r="B8" s="66" t="s">
         <v>459</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63"/>
       <c r="F8" s="63" t="s">
         <v>170</v>
@@ -9266,12 +9272,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66"/>
       <c r="C9" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="D9" s="166"/>
+      <c r="D9" s="175"/>
       <c r="E9" s="63" t="s">
         <v>170</v>
       </c>
@@ -9279,23 +9285,23 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="190"/>
+      <c r="A10" s="194"/>
       <c r="B10" s="66"/>
       <c r="C10" s="64"/>
-      <c r="D10" s="166"/>
+      <c r="D10" s="175"/>
       <c r="E10" s="64"/>
       <c r="F10" s="60"/>
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189" t="s">
+      <c r="A11" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="62"/>
       <c r="C11" s="63" t="s">
         <v>354</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="85" t="s">
@@ -9305,12 +9311,12 @@
       <c r="G11" s="59"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="63"/>
       <c r="C12" s="77" t="s">
         <v>398</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="63" t="s">
         <v>462</v>
       </c>
@@ -9318,14 +9324,14 @@
       <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63" t="s">
         <v>435</v>
       </c>
       <c r="C13" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
@@ -9333,23 +9339,23 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="189"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="63"/>
       <c r="C14" s="77"/>
-      <c r="D14" s="181"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63"/>
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="191" t="s">
+      <c r="A15" s="184" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="100"/>
       <c r="C15" s="59" t="s">
         <v>436</v>
       </c>
-      <c r="D15" s="165" t="s">
+      <c r="D15" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E15" s="84" t="s">
@@ -9359,12 +9365,12 @@
       <c r="G15" s="59"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="178"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="98"/>
       <c r="C16" s="112" t="s">
         <v>261</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="175"/>
       <c r="E16" s="98" t="s">
         <v>363</v>
       </c>
@@ -9372,14 +9378,14 @@
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="179"/>
+      <c r="A17" s="186"/>
       <c r="B17" s="122" t="s">
         <v>402</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>455</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="175"/>
       <c r="E17" s="63" t="s">
         <v>130</v>
       </c>
@@ -9389,7 +9395,7 @@
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="163" t="s">
+      <c r="A18" s="172" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="57"/>
@@ -9402,7 +9408,7 @@
       <c r="G18" s="123"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="163"/>
+      <c r="A19" s="172"/>
       <c r="B19" s="60" t="s">
         <v>464</v>
       </c>
@@ -9417,7 +9423,7 @@
       <c r="G19" s="124"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="163"/>
+      <c r="A20" s="172"/>
       <c r="B20" s="60"/>
       <c r="C20" s="77" t="s">
         <v>466</v>
@@ -9428,14 +9434,14 @@
       <c r="G20" s="124"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="65"/>
       <c r="C21" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="D21" s="165"/>
+      <c r="D21" s="174"/>
       <c r="E21" s="84" t="s">
         <v>180</v>
       </c>
@@ -9443,12 +9449,12 @@
       <c r="G21" s="62"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="66"/>
       <c r="C22" s="63" t="s">
         <v>467</v>
       </c>
-      <c r="D22" s="166"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="98" t="s">
         <v>130</v>
       </c>
@@ -9456,14 +9462,14 @@
       <c r="G22" s="63"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="178"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="66" t="s">
         <v>468</v>
       </c>
       <c r="C23" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="D23" s="166"/>
+      <c r="D23" s="175"/>
       <c r="E23" s="63" t="s">
         <v>130</v>
       </c>
@@ -9471,12 +9477,12 @@
       <c r="G23" s="63"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="178"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="66"/>
       <c r="C24" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="166"/>
+      <c r="D24" s="175"/>
       <c r="E24" s="63" t="s">
         <v>130</v>
       </c>
@@ -9484,10 +9490,10 @@
       <c r="G24" s="63"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="120"/>
       <c r="C25" s="64"/>
-      <c r="D25" s="167"/>
+      <c r="D25" s="176"/>
       <c r="E25" s="64"/>
       <c r="F25" s="58"/>
       <c r="G25" s="64"/>
@@ -9498,7 +9504,7 @@
       </c>
       <c r="B26" s="113"/>
       <c r="C26" s="63"/>
-      <c r="D26" s="166" t="s">
+      <c r="D26" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E26" s="98"/>
@@ -9508,7 +9514,7 @@
     <row r="27" spans="1:7">
       <c r="A27" s="211"/>
       <c r="C27" s="76"/>
-      <c r="D27" s="166"/>
+      <c r="D27" s="175"/>
       <c r="E27" s="63"/>
       <c r="F27" s="60"/>
       <c r="G27" s="60"/>
@@ -9521,7 +9527,7 @@
       <c r="C28" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="166"/>
+      <c r="D28" s="175"/>
       <c r="E28" s="63"/>
       <c r="F28" s="60"/>
       <c r="G28" s="60"/>
@@ -9530,29 +9536,29 @@
       <c r="A29" s="211"/>
       <c r="B29" s="114"/>
       <c r="C29" s="63"/>
-      <c r="D29" s="166"/>
+      <c r="D29" s="175"/>
       <c r="E29" s="63"/>
       <c r="F29" s="60"/>
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="206"/>
+      <c r="A30" s="207"/>
       <c r="B30" s="115"/>
       <c r="C30" s="64"/>
-      <c r="D30" s="166"/>
+      <c r="D30" s="175"/>
       <c r="E30" s="63"/>
       <c r="F30" s="60"/>
       <c r="G30" s="61"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="171" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="59"/>
       <c r="C31" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="D31" s="192" t="s">
+      <c r="D31" s="181" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="59" t="s">
@@ -9562,14 +9568,14 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="163"/>
+      <c r="A32" s="172"/>
       <c r="B32" s="60" t="s">
         <v>471</v>
       </c>
       <c r="C32" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="182"/>
       <c r="E32" s="63" t="s">
         <v>180</v>
       </c>
@@ -9577,12 +9583,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="163"/>
+      <c r="A33" s="172"/>
       <c r="B33" s="60"/>
       <c r="C33" s="77" t="s">
         <v>472</v>
       </c>
-      <c r="D33" s="193"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="60" t="s">
         <v>130</v>
       </c>
@@ -9590,12 +9596,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="164"/>
+      <c r="A34" s="173"/>
       <c r="B34" s="61"/>
       <c r="C34" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="D34" s="194"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="61" t="s">
         <v>191</v>
       </c>
@@ -9603,12 +9609,12 @@
       <c r="G34" s="60"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="185" t="s">
         <v>16</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="127"/>
-      <c r="D35" s="166" t="s">
+      <c r="D35" s="175" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="98"/>
@@ -9616,14 +9622,14 @@
       <c r="G35" s="59"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="66" t="s">
         <v>444</v>
       </c>
       <c r="C36" s="93" t="s">
         <v>474</v>
       </c>
-      <c r="D36" s="166"/>
+      <c r="D36" s="175"/>
       <c r="E36" s="63" t="s">
         <v>296</v>
       </c>
@@ -9631,12 +9637,12 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="66"/>
       <c r="C37" s="93" t="s">
         <v>475</v>
       </c>
-      <c r="D37" s="166"/>
+      <c r="D37" s="175"/>
       <c r="E37" s="63" t="s">
         <v>457</v>
       </c>
@@ -9644,12 +9650,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="66"/>
       <c r="C38" s="93" t="s">
         <v>386</v>
       </c>
-      <c r="D38" s="166"/>
+      <c r="D38" s="175"/>
       <c r="E38" s="63" t="s">
         <v>173</v>
       </c>
@@ -9657,12 +9663,12 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="66"/>
       <c r="C39" s="63" t="s">
         <v>476</v>
       </c>
-      <c r="D39" s="166"/>
+      <c r="D39" s="175"/>
       <c r="E39" s="63" t="s">
         <v>170</v>
       </c>
@@ -9670,12 +9676,12 @@
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="178"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="66"/>
       <c r="C40" s="87" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="166"/>
+      <c r="D40" s="175"/>
       <c r="E40" s="63" t="s">
         <v>170</v>
       </c>
@@ -9683,12 +9689,12 @@
       <c r="G40" s="60"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66"/>
       <c r="C41" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="D41" s="166"/>
+      <c r="D41" s="175"/>
       <c r="E41" s="63" t="s">
         <v>238</v>
       </c>
@@ -9696,23 +9702,23 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="179"/>
+      <c r="A42" s="186"/>
       <c r="B42" s="67"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="166"/>
+      <c r="D42" s="175"/>
       <c r="E42" s="64"/>
       <c r="F42" s="60"/>
       <c r="G42" s="61"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="178" t="s">
+      <c r="A43" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="66"/>
       <c r="C43" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="D43" s="201"/>
+      <c r="D43" s="198"/>
       <c r="E43" s="46" t="s">
         <v>479</v>
       </c>
@@ -9720,12 +9726,12 @@
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="178"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="66"/>
       <c r="C44" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="D44" s="202"/>
+      <c r="D44" s="199"/>
       <c r="E44" s="77" t="s">
         <v>263</v>
       </c>
@@ -9733,14 +9739,14 @@
       <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="178"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="66" t="s">
         <v>480</v>
       </c>
       <c r="C45" s="93" t="s">
         <v>467</v>
       </c>
-      <c r="D45" s="202"/>
+      <c r="D45" s="199"/>
       <c r="E45" s="46" t="s">
         <v>170</v>
       </c>
@@ -9748,12 +9754,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="178"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="66"/>
       <c r="C46" s="63" t="s">
         <v>481</v>
       </c>
-      <c r="D46" s="202"/>
+      <c r="D46" s="199"/>
       <c r="E46" s="63" t="s">
         <v>168</v>
       </c>
@@ -9761,25 +9767,16 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="179"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="67"/>
       <c r="C47" s="99"/>
-      <c r="D47" s="203"/>
+      <c r="D47" s="200"/>
       <c r="E47" s="58"/>
       <c r="F47" s="64"/>
       <c r="G47" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="D11:D14"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="D35:D42"/>
     <mergeCell ref="A43:A47"/>
@@ -9790,6 +9787,15 @@
     <mergeCell ref="D26:D30"/>
     <mergeCell ref="A31:A34"/>
     <mergeCell ref="D31:D34"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="D11:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9838,7 +9844,7 @@
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="178" t="s">
+      <c r="C5" s="185" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="66"/>
@@ -9853,7 +9859,7 @@
       <c r="I5" s="60"/>
     </row>
     <row r="6" spans="3:9">
-      <c r="C6" s="178"/>
+      <c r="C6" s="185"/>
       <c r="D6" s="66"/>
       <c r="E6" s="63" t="s">
         <v>483</v>
@@ -9866,7 +9872,7 @@
       <c r="I6" s="60"/>
     </row>
     <row r="7" spans="3:9">
-      <c r="C7" s="178"/>
+      <c r="C7" s="185"/>
       <c r="D7" s="66"/>
       <c r="E7" s="63" t="s">
         <v>484</v>
@@ -9879,7 +9885,7 @@
       <c r="I7" s="60"/>
     </row>
     <row r="8" spans="3:9">
-      <c r="C8" s="178"/>
+      <c r="C8" s="185"/>
       <c r="D8" s="66" t="s">
         <v>485</v>
       </c>
@@ -9894,7 +9900,7 @@
       <c r="I8" s="60"/>
     </row>
     <row r="9" spans="3:9">
-      <c r="C9" s="178"/>
+      <c r="C9" s="185"/>
       <c r="D9" s="66"/>
       <c r="E9" s="63" t="s">
         <v>488</v>
@@ -9907,7 +9913,7 @@
       <c r="I9" s="60"/>
     </row>
     <row r="10" spans="3:9">
-      <c r="C10" s="178"/>
+      <c r="C10" s="185"/>
       <c r="D10" s="66"/>
       <c r="E10" s="63" t="s">
         <v>489</v>
@@ -9920,7 +9926,7 @@
       <c r="I10" s="60"/>
     </row>
     <row r="11" spans="3:9">
-      <c r="C11" s="178"/>
+      <c r="C11" s="185"/>
       <c r="D11" s="66"/>
       <c r="E11" s="63" t="s">
         <v>491</v>
@@ -9933,7 +9939,7 @@
       <c r="I11" s="60"/>
     </row>
     <row r="12" spans="3:9">
-      <c r="C12" s="178"/>
+      <c r="C12" s="185"/>
       <c r="D12" s="66"/>
       <c r="E12" s="76" t="s">
         <v>493</v>
@@ -9946,7 +9952,7 @@
       <c r="I12" s="60"/>
     </row>
     <row r="13" spans="3:9">
-      <c r="C13" s="178"/>
+      <c r="C13" s="185"/>
       <c r="D13" s="66"/>
       <c r="E13" s="76" t="s">
         <v>495</v>
@@ -9959,7 +9965,7 @@
       <c r="I13" s="60"/>
     </row>
     <row r="14" spans="3:9">
-      <c r="C14" s="178"/>
+      <c r="C14" s="185"/>
       <c r="D14" s="66"/>
       <c r="E14" s="76" t="s">
         <v>496</v>
@@ -9972,7 +9978,7 @@
       <c r="I14" s="60"/>
     </row>
     <row r="15" spans="3:9">
-      <c r="C15" s="178"/>
+      <c r="C15" s="185"/>
       <c r="D15" s="67"/>
       <c r="E15" s="76" t="s">
         <v>497</v>
@@ -10080,14 +10086,14 @@
       <c r="I22" s="60"/>
     </row>
     <row r="23" spans="3:9">
-      <c r="C23" s="189" t="s">
+      <c r="C23" s="193" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="63" t="s">
         <v>505</v>
       </c>
-      <c r="F23" s="180"/>
+      <c r="F23" s="178"/>
       <c r="G23" s="85" t="s">
         <v>180</v>
       </c>
@@ -10095,12 +10101,12 @@
       <c r="I23" s="59"/>
     </row>
     <row r="24" spans="3:9">
-      <c r="C24" s="189"/>
+      <c r="C24" s="193"/>
       <c r="D24" s="63"/>
       <c r="E24" s="77" t="s">
         <v>506</v>
       </c>
-      <c r="F24" s="181"/>
+      <c r="F24" s="179"/>
       <c r="G24" s="63" t="s">
         <v>494</v>
       </c>
@@ -10108,14 +10114,14 @@
       <c r="I24" s="60"/>
     </row>
     <row r="25" spans="3:9">
-      <c r="C25" s="189"/>
+      <c r="C25" s="193"/>
       <c r="D25" s="63" t="s">
         <v>507</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="F25" s="181"/>
+      <c r="F25" s="179"/>
       <c r="G25" s="63"/>
       <c r="H25" s="63" t="s">
         <v>288</v>
@@ -10123,12 +10129,12 @@
       <c r="I25" s="60"/>
     </row>
     <row r="26" spans="3:9">
-      <c r="C26" s="189"/>
+      <c r="C26" s="193"/>
       <c r="D26" s="63"/>
       <c r="E26" s="57" t="s">
         <v>509</v>
       </c>
-      <c r="F26" s="181"/>
+      <c r="F26" s="179"/>
       <c r="G26" s="66" t="s">
         <v>510</v>
       </c>
@@ -10136,12 +10142,12 @@
       <c r="I26" s="60"/>
     </row>
     <row r="27" spans="3:9">
-      <c r="C27" s="189"/>
+      <c r="C27" s="193"/>
       <c r="D27" s="63"/>
       <c r="E27" s="57" t="s">
         <v>511</v>
       </c>
-      <c r="F27" s="181"/>
+      <c r="F27" s="179"/>
       <c r="G27" s="66" t="s">
         <v>355</v>
       </c>
@@ -10149,12 +10155,12 @@
       <c r="I27" s="60"/>
     </row>
     <row r="28" spans="3:9">
-      <c r="C28" s="189"/>
+      <c r="C28" s="193"/>
       <c r="D28" s="63"/>
       <c r="E28" s="57" t="s">
         <v>512</v>
       </c>
-      <c r="F28" s="181"/>
+      <c r="F28" s="179"/>
       <c r="G28" s="66" t="s">
         <v>462</v>
       </c>
@@ -10162,12 +10168,12 @@
       <c r="I28" s="60"/>
     </row>
     <row r="29" spans="3:9">
-      <c r="C29" s="189"/>
+      <c r="C29" s="193"/>
       <c r="D29" s="63"/>
       <c r="E29" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="F29" s="181"/>
+      <c r="F29" s="179"/>
       <c r="G29" s="66" t="s">
         <v>180</v>
       </c>
@@ -10175,12 +10181,12 @@
       <c r="I29" s="60"/>
     </row>
     <row r="30" spans="3:9">
-      <c r="C30" s="189"/>
+      <c r="C30" s="193"/>
       <c r="D30" s="63"/>
       <c r="E30" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="F30" s="181"/>
+      <c r="F30" s="179"/>
       <c r="G30" s="66" t="s">
         <v>130</v>
       </c>
@@ -10188,12 +10194,12 @@
       <c r="I30" s="60"/>
     </row>
     <row r="31" spans="3:9">
-      <c r="C31" s="189"/>
+      <c r="C31" s="193"/>
       <c r="D31" s="63"/>
       <c r="E31" s="77" t="s">
         <v>515</v>
       </c>
-      <c r="F31" s="181"/>
+      <c r="F31" s="179"/>
       <c r="G31" s="66" t="s">
         <v>516</v>
       </c>
@@ -10201,14 +10207,14 @@
       <c r="I31" s="60"/>
     </row>
     <row r="32" spans="3:9">
-      <c r="C32" s="191" t="s">
+      <c r="C32" s="184" t="s">
         <v>4</v>
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="59" t="s">
         <v>517</v>
       </c>
-      <c r="F32" s="165"/>
+      <c r="F32" s="174"/>
       <c r="G32" s="84" t="s">
         <v>180</v>
       </c>
@@ -10216,12 +10222,12 @@
       <c r="I32" s="59"/>
     </row>
     <row r="33" spans="3:9">
-      <c r="C33" s="178"/>
+      <c r="C33" s="185"/>
       <c r="D33" s="98"/>
       <c r="E33" s="112" t="s">
         <v>518</v>
       </c>
-      <c r="F33" s="166"/>
+      <c r="F33" s="175"/>
       <c r="G33" s="98" t="s">
         <v>288</v>
       </c>
@@ -10229,12 +10235,12 @@
       <c r="I33" s="60"/>
     </row>
     <row r="34" spans="3:9">
-      <c r="C34" s="178"/>
+      <c r="C34" s="185"/>
       <c r="D34" s="98"/>
       <c r="E34" s="112" t="s">
         <v>519</v>
       </c>
-      <c r="F34" s="166"/>
+      <c r="F34" s="175"/>
       <c r="G34" s="98" t="s">
         <v>288</v>
       </c>
@@ -10242,12 +10248,12 @@
       <c r="I34" s="60"/>
     </row>
     <row r="35" spans="3:9">
-      <c r="C35" s="178"/>
+      <c r="C35" s="185"/>
       <c r="D35" s="98"/>
       <c r="E35" s="112" t="s">
         <v>520</v>
       </c>
-      <c r="F35" s="166"/>
+      <c r="F35" s="175"/>
       <c r="G35" s="98" t="s">
         <v>510</v>
       </c>
@@ -10255,14 +10261,14 @@
       <c r="I35" s="60"/>
     </row>
     <row r="36" spans="3:9">
-      <c r="C36" s="178"/>
+      <c r="C36" s="185"/>
       <c r="D36" s="98" t="s">
         <v>521</v>
       </c>
       <c r="E36" s="129" t="s">
         <v>522</v>
       </c>
-      <c r="F36" s="166"/>
+      <c r="F36" s="175"/>
       <c r="G36" s="98" t="s">
         <v>180</v>
       </c>
@@ -10270,12 +10276,12 @@
       <c r="I36" s="60"/>
     </row>
     <row r="37" spans="3:9">
-      <c r="C37" s="178"/>
+      <c r="C37" s="185"/>
       <c r="D37" s="98"/>
       <c r="E37" s="129" t="s">
         <v>523</v>
       </c>
-      <c r="F37" s="166"/>
+      <c r="F37" s="175"/>
       <c r="G37" s="98" t="s">
         <v>462</v>
       </c>
@@ -10283,12 +10289,12 @@
       <c r="I37" s="60"/>
     </row>
     <row r="38" spans="3:9">
-      <c r="C38" s="178"/>
+      <c r="C38" s="185"/>
       <c r="D38" s="98"/>
       <c r="E38" s="129" t="s">
         <v>524</v>
       </c>
-      <c r="F38" s="166"/>
+      <c r="F38" s="175"/>
       <c r="G38" s="98" t="s">
         <v>355</v>
       </c>
@@ -10296,12 +10302,12 @@
       <c r="I38" s="60"/>
     </row>
     <row r="39" spans="3:9">
-      <c r="C39" s="178"/>
+      <c r="C39" s="185"/>
       <c r="D39" s="98"/>
       <c r="E39" s="129" t="s">
         <v>525</v>
       </c>
-      <c r="F39" s="166"/>
+      <c r="F39" s="175"/>
       <c r="G39" s="98" t="s">
         <v>494</v>
       </c>
@@ -10309,12 +10315,12 @@
       <c r="I39" s="60"/>
     </row>
     <row r="40" spans="3:9">
-      <c r="C40" s="178"/>
+      <c r="C40" s="185"/>
       <c r="D40" s="98"/>
       <c r="E40" s="129" t="s">
         <v>526</v>
       </c>
-      <c r="F40" s="166"/>
+      <c r="F40" s="175"/>
       <c r="G40" s="63" t="s">
         <v>355</v>
       </c>
@@ -10322,7 +10328,7 @@
       <c r="I40" s="60"/>
     </row>
     <row r="41" spans="3:9">
-      <c r="C41" s="178"/>
+      <c r="C41" s="185"/>
       <c r="D41" s="98"/>
       <c r="E41" s="60" t="s">
         <v>527</v>
@@ -10335,7 +10341,7 @@
       <c r="I41" s="60"/>
     </row>
     <row r="42" spans="3:9">
-      <c r="C42" s="162" t="s">
+      <c r="C42" s="171" t="s">
         <v>12</v>
       </c>
       <c r="D42" s="56"/>
@@ -10346,7 +10352,7 @@
       <c r="I42" s="131"/>
     </row>
     <row r="43" spans="3:9">
-      <c r="C43" s="163"/>
+      <c r="C43" s="172"/>
       <c r="D43" s="57"/>
       <c r="E43" s="63" t="s">
         <v>528</v>
@@ -10359,7 +10365,7 @@
       <c r="I43" s="132"/>
     </row>
     <row r="44" spans="3:9">
-      <c r="C44" s="163"/>
+      <c r="C44" s="172"/>
       <c r="D44" s="57"/>
       <c r="E44" s="63" t="s">
         <v>530</v>
@@ -10372,7 +10378,7 @@
       <c r="I44" s="132"/>
     </row>
     <row r="45" spans="3:9">
-      <c r="C45" s="163"/>
+      <c r="C45" s="172"/>
       <c r="D45" s="57"/>
       <c r="E45" s="63" t="s">
         <v>531</v>
@@ -10385,7 +10391,7 @@
       <c r="I45" s="132"/>
     </row>
     <row r="46" spans="3:9">
-      <c r="C46" s="163"/>
+      <c r="C46" s="172"/>
       <c r="D46" s="57" t="s">
         <v>532</v>
       </c>
@@ -10400,7 +10406,7 @@
       <c r="I46" s="132"/>
     </row>
     <row r="47" spans="3:9">
-      <c r="C47" s="163"/>
+      <c r="C47" s="172"/>
       <c r="D47" s="57"/>
       <c r="E47" s="98" t="s">
         <v>533</v>
@@ -10413,7 +10419,7 @@
       <c r="I47" s="132"/>
     </row>
     <row r="48" spans="3:9">
-      <c r="C48" s="163"/>
+      <c r="C48" s="172"/>
       <c r="D48" s="57"/>
       <c r="E48" s="121" t="s">
         <v>534</v>
@@ -10439,7 +10445,7 @@
       <c r="I49" s="132"/>
     </row>
     <row r="50" spans="3:9">
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="185" t="s">
         <v>28</v>
       </c>
       <c r="D50" s="66"/>
@@ -10454,7 +10460,7 @@
       <c r="I50" s="62"/>
     </row>
     <row r="51" spans="3:9">
-      <c r="C51" s="178"/>
+      <c r="C51" s="185"/>
       <c r="D51" s="66"/>
       <c r="E51" s="66" t="s">
         <v>467</v>
@@ -10467,7 +10473,7 @@
       <c r="I51" s="63"/>
     </row>
     <row r="52" spans="3:9">
-      <c r="C52" s="178"/>
+      <c r="C52" s="185"/>
       <c r="D52" s="66" t="s">
         <v>536</v>
       </c>
@@ -10482,7 +10488,7 @@
       <c r="I52" s="63"/>
     </row>
     <row r="53" spans="3:9">
-      <c r="C53" s="178"/>
+      <c r="C53" s="185"/>
       <c r="D53" s="66"/>
       <c r="E53" s="66" t="s">
         <v>469</v>
@@ -10495,7 +10501,7 @@
       <c r="I53" s="63"/>
     </row>
     <row r="54" spans="3:9">
-      <c r="C54" s="178"/>
+      <c r="C54" s="185"/>
       <c r="D54" s="135"/>
       <c r="E54" s="66" t="s">
         <v>537</v>
@@ -10508,7 +10514,7 @@
       <c r="I54" s="63"/>
     </row>
     <row r="55" spans="3:9">
-      <c r="C55" s="178"/>
+      <c r="C55" s="185"/>
       <c r="D55" s="135"/>
       <c r="E55" s="66" t="s">
         <v>502</v>
@@ -10521,7 +10527,7 @@
       <c r="I55" s="63"/>
     </row>
     <row r="56" spans="3:9">
-      <c r="C56" s="178"/>
+      <c r="C56" s="185"/>
       <c r="D56" s="135"/>
       <c r="E56" s="66" t="s">
         <v>538</v>
@@ -10534,7 +10540,7 @@
       <c r="I56" s="63"/>
     </row>
     <row r="57" spans="3:9">
-      <c r="C57" s="179"/>
+      <c r="C57" s="186"/>
       <c r="D57" s="120"/>
       <c r="E57" s="67" t="s">
         <v>539</v>
@@ -10552,7 +10558,7 @@
       </c>
       <c r="D58" s="113"/>
       <c r="E58" s="63"/>
-      <c r="F58" s="166"/>
+      <c r="F58" s="175"/>
       <c r="G58" s="98"/>
       <c r="H58" s="60"/>
       <c r="I58" s="60"/>
@@ -10562,7 +10568,7 @@
       <c r="E59" s="63" t="s">
         <v>540</v>
       </c>
-      <c r="F59" s="166"/>
+      <c r="F59" s="175"/>
       <c r="G59" s="63" t="s">
         <v>351</v>
       </c>
@@ -10577,7 +10583,7 @@
       <c r="E60" s="63" t="s">
         <v>542</v>
       </c>
-      <c r="F60" s="166"/>
+      <c r="F60" s="175"/>
       <c r="G60" s="63" t="s">
         <v>185</v>
       </c>
@@ -10588,7 +10594,7 @@
       <c r="C61" s="211"/>
       <c r="D61" s="114"/>
       <c r="E61" s="63"/>
-      <c r="F61" s="166"/>
+      <c r="F61" s="175"/>
       <c r="G61" s="63"/>
       <c r="H61" s="60"/>
       <c r="I61" s="60"/>
@@ -10597,20 +10603,20 @@
       <c r="C62" s="212"/>
       <c r="D62" s="115"/>
       <c r="E62" s="64"/>
-      <c r="F62" s="167"/>
+      <c r="F62" s="176"/>
       <c r="G62" s="64"/>
       <c r="H62" s="61"/>
       <c r="I62" s="61"/>
     </row>
     <row r="63" spans="3:9">
-      <c r="C63" s="178" t="s">
+      <c r="C63" s="185" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="62"/>
       <c r="E63" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="F63" s="193"/>
+      <c r="F63" s="182"/>
       <c r="G63" s="60" t="s">
         <v>180</v>
       </c>
@@ -10618,12 +10624,12 @@
       <c r="I63" s="60"/>
     </row>
     <row r="64" spans="3:9">
-      <c r="C64" s="178"/>
+      <c r="C64" s="185"/>
       <c r="D64" s="63"/>
       <c r="E64" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="F64" s="193"/>
+      <c r="F64" s="182"/>
       <c r="G64" s="63" t="s">
         <v>288</v>
       </c>
@@ -10631,12 +10637,12 @@
       <c r="I64" s="60"/>
     </row>
     <row r="65" spans="3:9">
-      <c r="C65" s="178"/>
+      <c r="C65" s="185"/>
       <c r="D65" s="63"/>
       <c r="E65" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="F65" s="193"/>
+      <c r="F65" s="182"/>
       <c r="G65" s="60" t="s">
         <v>288</v>
       </c>
@@ -10644,12 +10650,12 @@
       <c r="I65" s="60"/>
     </row>
     <row r="66" spans="3:9">
-      <c r="C66" s="178"/>
+      <c r="C66" s="185"/>
       <c r="D66" s="63"/>
       <c r="E66" s="77" t="s">
         <v>545</v>
       </c>
-      <c r="F66" s="193"/>
+      <c r="F66" s="182"/>
       <c r="G66" s="60" t="s">
         <v>351</v>
       </c>
@@ -10657,14 +10663,14 @@
       <c r="I66" s="60"/>
     </row>
     <row r="67" spans="3:9">
-      <c r="C67" s="178"/>
+      <c r="C67" s="185"/>
       <c r="D67" s="63" t="s">
         <v>546</v>
       </c>
       <c r="E67" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="F67" s="193"/>
+      <c r="F67" s="182"/>
       <c r="G67" s="60" t="s">
         <v>130</v>
       </c>
@@ -10672,12 +10678,12 @@
       <c r="I67" s="60"/>
     </row>
     <row r="68" spans="3:9">
-      <c r="C68" s="178"/>
+      <c r="C68" s="185"/>
       <c r="D68" s="63"/>
       <c r="E68" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="F68" s="193"/>
+      <c r="F68" s="182"/>
       <c r="G68" s="60" t="s">
         <v>381</v>
       </c>
@@ -10685,12 +10691,12 @@
       <c r="I68" s="60"/>
     </row>
     <row r="69" spans="3:9">
-      <c r="C69" s="178"/>
+      <c r="C69" s="185"/>
       <c r="D69" s="63"/>
       <c r="E69" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="F69" s="193"/>
+      <c r="F69" s="182"/>
       <c r="G69" s="60" t="s">
         <v>494</v>
       </c>
@@ -10698,12 +10704,12 @@
       <c r="I69" s="60"/>
     </row>
     <row r="70" spans="3:9">
-      <c r="C70" s="178"/>
+      <c r="C70" s="185"/>
       <c r="D70" s="63"/>
       <c r="E70" s="57" t="s">
         <v>550</v>
       </c>
-      <c r="F70" s="193"/>
+      <c r="F70" s="182"/>
       <c r="G70" s="60" t="s">
         <v>358</v>
       </c>
@@ -10711,12 +10717,12 @@
       <c r="I70" s="60"/>
     </row>
     <row r="71" spans="3:9">
-      <c r="C71" s="179"/>
+      <c r="C71" s="186"/>
       <c r="D71" s="64"/>
       <c r="E71" s="46" t="s">
         <v>551</v>
       </c>
-      <c r="F71" s="194"/>
+      <c r="F71" s="183"/>
       <c r="G71" s="61" t="s">
         <v>191</v>
       </c>
@@ -10724,14 +10730,14 @@
       <c r="I71" s="60"/>
     </row>
     <row r="72" spans="3:9">
-      <c r="C72" s="178" t="s">
+      <c r="C72" s="185" t="s">
         <v>16</v>
       </c>
       <c r="D72" s="66"/>
       <c r="E72" s="116" t="s">
         <v>552</v>
       </c>
-      <c r="F72" s="166"/>
+      <c r="F72" s="175"/>
       <c r="G72" s="84" t="s">
         <v>180</v>
       </c>
@@ -10739,12 +10745,12 @@
       <c r="I72" s="59"/>
     </row>
     <row r="73" spans="3:9">
-      <c r="C73" s="178"/>
+      <c r="C73" s="185"/>
       <c r="D73" s="66"/>
       <c r="E73" s="93" t="s">
         <v>553</v>
       </c>
-      <c r="F73" s="166"/>
+      <c r="F73" s="175"/>
       <c r="G73" s="98" t="s">
         <v>288</v>
       </c>
@@ -10752,12 +10758,12 @@
       <c r="I73" s="60"/>
     </row>
     <row r="74" spans="3:9">
-      <c r="C74" s="178"/>
+      <c r="C74" s="185"/>
       <c r="D74" s="66"/>
       <c r="E74" s="93" t="s">
         <v>554</v>
       </c>
-      <c r="F74" s="166"/>
+      <c r="F74" s="175"/>
       <c r="G74" s="98">
         <v>45</v>
       </c>
@@ -10765,12 +10771,12 @@
       <c r="I74" s="60"/>
     </row>
     <row r="75" spans="3:9">
-      <c r="C75" s="178"/>
+      <c r="C75" s="185"/>
       <c r="D75" s="66"/>
       <c r="E75" s="93" t="s">
         <v>555</v>
       </c>
-      <c r="F75" s="166"/>
+      <c r="F75" s="175"/>
       <c r="G75" s="98" t="s">
         <v>170</v>
       </c>
@@ -10778,14 +10784,14 @@
       <c r="I75" s="60"/>
     </row>
     <row r="76" spans="3:9">
-      <c r="C76" s="178"/>
+      <c r="C76" s="185"/>
       <c r="D76" s="66" t="s">
         <v>556</v>
       </c>
       <c r="E76" s="93" t="s">
         <v>557</v>
       </c>
-      <c r="F76" s="166"/>
+      <c r="F76" s="175"/>
       <c r="G76" s="63" t="s">
         <v>170</v>
       </c>
@@ -10793,12 +10799,12 @@
       <c r="I76" s="60"/>
     </row>
     <row r="77" spans="3:9">
-      <c r="C77" s="178"/>
+      <c r="C77" s="185"/>
       <c r="D77" s="66"/>
       <c r="E77" s="93" t="s">
         <v>558</v>
       </c>
-      <c r="F77" s="166"/>
+      <c r="F77" s="175"/>
       <c r="G77" s="93" t="s">
         <v>494</v>
       </c>
@@ -10806,12 +10812,12 @@
       <c r="I77" s="60"/>
     </row>
     <row r="78" spans="3:9">
-      <c r="C78" s="178"/>
+      <c r="C78" s="185"/>
       <c r="D78" s="66"/>
       <c r="E78" s="87" t="s">
         <v>559</v>
       </c>
-      <c r="F78" s="166"/>
+      <c r="F78" s="175"/>
       <c r="G78" s="63" t="s">
         <v>170</v>
       </c>
@@ -10819,12 +10825,12 @@
       <c r="I78" s="60"/>
     </row>
     <row r="79" spans="3:9">
-      <c r="C79" s="178"/>
+      <c r="C79" s="185"/>
       <c r="D79" s="66"/>
       <c r="E79" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="F79" s="166"/>
+      <c r="F79" s="175"/>
       <c r="G79" s="63" t="s">
         <v>561</v>
       </c>
@@ -10832,12 +10838,12 @@
       <c r="I79" s="60"/>
     </row>
     <row r="80" spans="3:9">
-      <c r="C80" s="178"/>
+      <c r="C80" s="185"/>
       <c r="D80" s="66"/>
       <c r="E80" s="93" t="s">
         <v>562</v>
       </c>
-      <c r="F80" s="166"/>
+      <c r="F80" s="175"/>
       <c r="G80" s="63" t="s">
         <v>170</v>
       </c>
@@ -10845,12 +10851,12 @@
       <c r="I80" s="60"/>
     </row>
     <row r="81" spans="3:9">
-      <c r="C81" s="178"/>
+      <c r="C81" s="185"/>
       <c r="D81" s="66"/>
       <c r="E81" s="63" t="s">
         <v>563</v>
       </c>
-      <c r="F81" s="166"/>
+      <c r="F81" s="175"/>
       <c r="G81" s="93" t="s">
         <v>170</v>
       </c>
@@ -10858,23 +10864,23 @@
       <c r="I81" s="60"/>
     </row>
     <row r="82" spans="3:9">
-      <c r="C82" s="179"/>
+      <c r="C82" s="186"/>
       <c r="D82" s="67"/>
       <c r="E82" s="76"/>
-      <c r="F82" s="166"/>
+      <c r="F82" s="175"/>
       <c r="G82" s="64"/>
       <c r="H82" s="60"/>
       <c r="I82" s="61"/>
     </row>
     <row r="83" spans="3:9">
-      <c r="C83" s="178" t="s">
+      <c r="C83" s="185" t="s">
         <v>30</v>
       </c>
       <c r="D83" s="66"/>
       <c r="E83" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="F83" s="201"/>
+      <c r="F83" s="198"/>
       <c r="G83" s="46" t="s">
         <v>263</v>
       </c>
@@ -10882,12 +10888,12 @@
       <c r="I83" s="60"/>
     </row>
     <row r="84" spans="3:9">
-      <c r="C84" s="178"/>
+      <c r="C84" s="185"/>
       <c r="D84" s="66"/>
       <c r="E84" s="63" t="s">
         <v>565</v>
       </c>
-      <c r="F84" s="202"/>
+      <c r="F84" s="199"/>
       <c r="G84" s="77" t="s">
         <v>566</v>
       </c>
@@ -10895,12 +10901,12 @@
       <c r="I84" s="60"/>
     </row>
     <row r="85" spans="3:9">
-      <c r="C85" s="178"/>
+      <c r="C85" s="185"/>
       <c r="D85" s="66"/>
       <c r="E85" s="93" t="s">
         <v>567</v>
       </c>
-      <c r="F85" s="202"/>
+      <c r="F85" s="199"/>
       <c r="G85" s="46" t="s">
         <v>566</v>
       </c>
@@ -10908,12 +10914,12 @@
       <c r="I85" s="60"/>
     </row>
     <row r="86" spans="3:9">
-      <c r="C86" s="178"/>
+      <c r="C86" s="185"/>
       <c r="D86" s="66"/>
       <c r="E86" s="63" t="s">
         <v>568</v>
       </c>
-      <c r="F86" s="202"/>
+      <c r="F86" s="199"/>
       <c r="G86" s="63" t="s">
         <v>566</v>
       </c>
@@ -10921,12 +10927,12 @@
       <c r="I86" s="60"/>
     </row>
     <row r="87" spans="3:9">
-      <c r="C87" s="178"/>
+      <c r="C87" s="185"/>
       <c r="D87" s="66"/>
       <c r="E87" s="93" t="s">
         <v>569</v>
       </c>
-      <c r="F87" s="202"/>
+      <c r="F87" s="199"/>
       <c r="G87" s="57" t="s">
         <v>566</v>
       </c>
@@ -10934,12 +10940,12 @@
       <c r="I87" s="60"/>
     </row>
     <row r="88" spans="3:9">
-      <c r="C88" s="178"/>
+      <c r="C88" s="185"/>
       <c r="D88" s="66"/>
       <c r="E88" s="63" t="s">
         <v>570</v>
       </c>
-      <c r="F88" s="202"/>
+      <c r="F88" s="199"/>
       <c r="G88" s="57" t="s">
         <v>571</v>
       </c>
@@ -10947,12 +10953,12 @@
       <c r="I88" s="60"/>
     </row>
     <row r="89" spans="3:9">
-      <c r="C89" s="178"/>
+      <c r="C89" s="185"/>
       <c r="D89" s="66"/>
       <c r="E89" s="63" t="s">
         <v>572</v>
       </c>
-      <c r="F89" s="202"/>
+      <c r="F89" s="199"/>
       <c r="G89" s="57" t="s">
         <v>573</v>
       </c>
@@ -10960,14 +10966,14 @@
       <c r="I89" s="60"/>
     </row>
     <row r="90" spans="3:9">
-      <c r="C90" s="178"/>
+      <c r="C90" s="185"/>
       <c r="D90" s="66" t="s">
         <v>574</v>
       </c>
       <c r="E90" s="93" t="s">
         <v>575</v>
       </c>
-      <c r="F90" s="202"/>
+      <c r="F90" s="199"/>
       <c r="G90" s="57" t="s">
         <v>263</v>
       </c>
@@ -10975,12 +10981,12 @@
       <c r="I90" s="60"/>
     </row>
     <row r="91" spans="3:9">
-      <c r="C91" s="178"/>
+      <c r="C91" s="185"/>
       <c r="D91" s="66"/>
       <c r="E91" s="63" t="s">
         <v>576</v>
       </c>
-      <c r="F91" s="202"/>
+      <c r="F91" s="199"/>
       <c r="G91" s="57" t="s">
         <v>577</v>
       </c>
@@ -10988,12 +10994,12 @@
       <c r="I91" s="60"/>
     </row>
     <row r="92" spans="3:9">
-      <c r="C92" s="178"/>
+      <c r="C92" s="185"/>
       <c r="D92" s="66"/>
       <c r="E92" s="63" t="s">
         <v>578</v>
       </c>
-      <c r="F92" s="202"/>
+      <c r="F92" s="199"/>
       <c r="G92" s="57" t="s">
         <v>566</v>
       </c>
@@ -11001,12 +11007,12 @@
       <c r="I92" s="60"/>
     </row>
     <row r="93" spans="3:9">
-      <c r="C93" s="178"/>
+      <c r="C93" s="185"/>
       <c r="D93" s="66"/>
       <c r="E93" s="93" t="s">
         <v>579</v>
       </c>
-      <c r="F93" s="202"/>
+      <c r="F93" s="199"/>
       <c r="G93" s="57" t="s">
         <v>580</v>
       </c>
@@ -11014,12 +11020,12 @@
       <c r="I93" s="60"/>
     </row>
     <row r="94" spans="3:9">
-      <c r="C94" s="178"/>
+      <c r="C94" s="185"/>
       <c r="D94" s="66"/>
       <c r="E94" s="63" t="s">
         <v>581</v>
       </c>
-      <c r="F94" s="202"/>
+      <c r="F94" s="199"/>
       <c r="G94" s="57" t="s">
         <v>582</v>
       </c>
@@ -11027,12 +11033,12 @@
       <c r="I94" s="60"/>
     </row>
     <row r="95" spans="3:9">
-      <c r="C95" s="178"/>
+      <c r="C95" s="185"/>
       <c r="D95" s="66"/>
       <c r="E95" s="93" t="s">
         <v>583</v>
       </c>
-      <c r="F95" s="202"/>
+      <c r="F95" s="199"/>
       <c r="G95" s="57" t="s">
         <v>580</v>
       </c>
@@ -11040,12 +11046,12 @@
       <c r="I95" s="60"/>
     </row>
     <row r="96" spans="3:9">
-      <c r="C96" s="178"/>
+      <c r="C96" s="185"/>
       <c r="D96" s="66"/>
       <c r="E96" s="93" t="s">
         <v>584</v>
       </c>
-      <c r="F96" s="202"/>
+      <c r="F96" s="199"/>
       <c r="G96" s="57" t="s">
         <v>170</v>
       </c>
@@ -11053,12 +11059,12 @@
       <c r="I96" s="60"/>
     </row>
     <row r="97" spans="3:9">
-      <c r="C97" s="178"/>
+      <c r="C97" s="185"/>
       <c r="D97" s="66"/>
       <c r="E97" s="93" t="s">
         <v>585</v>
       </c>
-      <c r="F97" s="202"/>
+      <c r="F97" s="199"/>
       <c r="G97" s="57" t="s">
         <v>170</v>
       </c>
@@ -11066,10 +11072,10 @@
       <c r="I97" s="60"/>
     </row>
     <row r="98" spans="3:9">
-      <c r="C98" s="179"/>
+      <c r="C98" s="186"/>
       <c r="D98" s="67"/>
       <c r="E98" s="99"/>
-      <c r="F98" s="203"/>
+      <c r="F98" s="200"/>
       <c r="G98" s="58"/>
       <c r="H98" s="64"/>
       <c r="I98" s="61"/>
@@ -11085,12 +11091,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C63:C71"/>
-    <mergeCell ref="F63:F71"/>
-    <mergeCell ref="C72:C82"/>
-    <mergeCell ref="F72:F82"/>
-    <mergeCell ref="C83:C98"/>
-    <mergeCell ref="F83:F98"/>
     <mergeCell ref="C50:C57"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="F58:F62"/>
@@ -11102,6 +11102,12 @@
     <mergeCell ref="C42:C48"/>
     <mergeCell ref="C16:C22"/>
     <mergeCell ref="C32:C41"/>
+    <mergeCell ref="C63:C71"/>
+    <mergeCell ref="F63:F71"/>
+    <mergeCell ref="C72:C82"/>
+    <mergeCell ref="F72:F82"/>
+    <mergeCell ref="C83:C98"/>
+    <mergeCell ref="F83:F98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11111,8 +11117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D21C7979-16D8-4A0A-A0F5-2DDD0C8E2E34}">
   <dimension ref="A1:Q152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12206,7 +12212,7 @@
       </c>
       <c r="I49" s="141">
         <f t="shared" ref="I49" si="15">SUMIFS(F48:F62, C48:C62,H49)</f>
-        <v>0.31944444444444436</v>
+        <v>0.2673611111111111</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -12258,7 +12264,7 @@
       </c>
       <c r="I51" s="141">
         <f t="shared" ref="I51" si="17">SUMIFS(F48:F62, C48:C62,H51)</f>
-        <v>0</v>
+        <v>-0.83333333333333337</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -12284,7 +12290,7 @@
       </c>
       <c r="I52" s="141">
         <f t="shared" ref="I52" si="18">SUMIFS(F48:F62, C48:C62,H52)</f>
-        <v>1.3888888888888895E-2</v>
+        <v>3.4722222222222265E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -12362,7 +12368,7 @@
       </c>
       <c r="I55" s="139">
         <f t="shared" ref="I55" si="21">SUM(I49:I54)</f>
-        <v>0.41319444444444448</v>
+        <v>-0.45138888888888878</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -12374,49 +12380,71 @@
         <v>594</v>
       </c>
       <c r="D56" s="141">
-        <v>0.75</v>
+        <v>0.65625</v>
       </c>
       <c r="E56" s="141">
-        <v>0.875</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="F56" s="141">
         <f t="shared" si="0"/>
-        <v>0.125</v>
+        <v>5.208333333333337E-2</v>
       </c>
       <c r="I56" s="143"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="221"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
+      <c r="B57" s="140" t="s">
+        <v>613</v>
+      </c>
+      <c r="C57" s="140" t="s">
+        <v>597</v>
+      </c>
+      <c r="D57" s="141">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E57" s="141">
+        <v>0.75</v>
+      </c>
       <c r="F57" s="141">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
       <c r="I57" s="143"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="221"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
+      <c r="B58" s="140" t="s">
+        <v>643</v>
+      </c>
+      <c r="C58" s="140" t="s">
+        <v>594</v>
+      </c>
+      <c r="D58" s="141">
+        <v>0.75</v>
+      </c>
+      <c r="E58" s="141">
+        <v>0.77083333333333337</v>
+      </c>
       <c r="F58" s="141">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.083333333333337E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="221"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="141"/>
+      <c r="B59" s="140" t="s">
+        <v>644</v>
+      </c>
+      <c r="C59" s="140" t="s">
+        <v>600</v>
+      </c>
+      <c r="D59" s="141">
+        <v>0.83333333333333337</v>
+      </c>
       <c r="E59" s="141"/>
       <c r="F59" s="141">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.83333333333333337</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -12454,7 +12482,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="221" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B63" s="140" t="s">
         <v>615</v>
@@ -12482,7 +12510,7 @@
     <row r="64" spans="1:9">
       <c r="A64" s="221"/>
       <c r="B64" s="140" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C64" s="140" t="s">
         <v>594</v>
@@ -12534,7 +12562,7 @@
     <row r="66" spans="1:9">
       <c r="A66" s="221"/>
       <c r="B66" s="140" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C66" s="140" t="s">
         <v>594</v>
@@ -12586,7 +12614,7 @@
     <row r="68" spans="1:9">
       <c r="A68" s="221"/>
       <c r="B68" s="140" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C68" s="140" t="s">
         <v>604</v>
@@ -12664,7 +12692,7 @@
     <row r="71" spans="1:9">
       <c r="A71" s="221"/>
       <c r="B71" s="140" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="C71" s="140" t="s">
         <v>594</v>
@@ -12684,7 +12712,7 @@
     <row r="72" spans="1:9">
       <c r="A72" s="221"/>
       <c r="B72" s="140" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C72" s="140" t="s">
         <v>594</v>
@@ -12786,7 +12814,7 @@
     <row r="79" spans="1:9">
       <c r="A79" s="221"/>
       <c r="B79" s="140" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C79" s="140" t="s">
         <v>594</v>
@@ -12812,7 +12840,7 @@
     <row r="80" spans="1:9">
       <c r="A80" s="221"/>
       <c r="B80" s="140" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C80" s="140" t="s">
         <v>594</v>
@@ -12864,7 +12892,7 @@
     <row r="82" spans="1:9">
       <c r="A82" s="221"/>
       <c r="B82" s="140" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C82" s="140" t="s">
         <v>594</v>
@@ -12890,7 +12918,7 @@
     <row r="83" spans="1:9">
       <c r="A83" s="221"/>
       <c r="B83" s="140" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C83" s="140" t="s">
         <v>594</v>
@@ -12916,7 +12944,7 @@
     <row r="84" spans="1:9">
       <c r="A84" s="221"/>
       <c r="B84" s="140" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C84" s="140" t="s">
         <v>602</v>
@@ -12942,7 +12970,7 @@
     <row r="85" spans="1:9">
       <c r="A85" s="221"/>
       <c r="B85" s="140" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C85" s="140" t="s">
         <v>594</v>
@@ -12968,7 +12996,7 @@
     <row r="86" spans="1:9">
       <c r="A86" s="221"/>
       <c r="B86" s="140" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C86" s="140" t="s">
         <v>597</v>
@@ -13008,7 +13036,7 @@
     <row r="88" spans="1:9">
       <c r="A88" s="221"/>
       <c r="B88" s="140" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C88" s="140" t="s">
         <v>600</v>
@@ -13046,7 +13074,7 @@
     <row r="90" spans="1:9">
       <c r="A90" s="221"/>
       <c r="B90" s="140" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="C90" s="140" t="s">
         <v>597</v>
@@ -13065,7 +13093,7 @@
     <row r="91" spans="1:9">
       <c r="A91" s="221"/>
       <c r="B91" s="140" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C91" s="140" t="s">
         <v>600</v>
@@ -13094,7 +13122,7 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="221" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B93" s="140" t="s">
         <v>615</v>
@@ -13122,7 +13150,7 @@
     <row r="94" spans="1:9">
       <c r="A94" s="221"/>
       <c r="B94" s="140" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="C94" s="140" t="s">
         <v>594</v>
@@ -13174,7 +13202,7 @@
     <row r="96" spans="1:9">
       <c r="A96" s="221"/>
       <c r="B96" s="140" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C96" s="140" t="s">
         <v>594</v>
@@ -13200,7 +13228,7 @@
     <row r="97" spans="1:9">
       <c r="A97" s="221"/>
       <c r="B97" s="140" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C97" s="140" t="s">
         <v>594</v>
@@ -13226,7 +13254,7 @@
     <row r="98" spans="1:9">
       <c r="A98" s="221"/>
       <c r="B98" s="140" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="C98" s="140" t="s">
         <v>598</v>
@@ -13252,7 +13280,7 @@
     <row r="99" spans="1:9">
       <c r="A99" s="221"/>
       <c r="B99" s="140" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="C99" s="140" t="s">
         <v>594</v>
@@ -13304,7 +13332,7 @@
     <row r="101" spans="1:9">
       <c r="A101" s="221"/>
       <c r="B101" s="140" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C101" s="140" t="s">
         <v>594</v>
@@ -13324,7 +13352,7 @@
     <row r="102" spans="1:9">
       <c r="A102" s="221"/>
       <c r="B102" s="140" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C102" s="140" t="s">
         <v>597</v>
@@ -13363,7 +13391,7 @@
     <row r="104" spans="1:9">
       <c r="A104" s="221"/>
       <c r="B104" s="140" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="C104" s="140" t="s">
         <v>600</v>
@@ -13401,7 +13429,7 @@
     <row r="106" spans="1:9">
       <c r="A106" s="221"/>
       <c r="B106" s="140" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C106" s="140" t="s">
         <v>594</v>
@@ -13420,7 +13448,7 @@
     <row r="107" spans="1:9">
       <c r="A107" s="221"/>
       <c r="B107" s="161" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C107" s="140" t="s">
         <v>594</v>
@@ -13438,7 +13466,7 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="221" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B108" s="140" t="s">
         <v>615</v>
@@ -13466,7 +13494,7 @@
     <row r="109" spans="1:9">
       <c r="A109" s="221"/>
       <c r="B109" s="140" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C109" s="140" t="s">
         <v>594</v>
@@ -13518,7 +13546,7 @@
     <row r="111" spans="1:9">
       <c r="A111" s="221"/>
       <c r="B111" s="140" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C111" s="140" t="s">
         <v>594</v>
@@ -13544,7 +13572,7 @@
     <row r="112" spans="1:9">
       <c r="A112" s="221"/>
       <c r="B112" s="140" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C112" s="140" t="s">
         <v>594</v>
@@ -13570,7 +13598,7 @@
     <row r="113" spans="1:10">
       <c r="A113" s="221"/>
       <c r="B113" s="140" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C113" s="140" t="s">
         <v>602</v>
@@ -13596,7 +13624,7 @@
     <row r="114" spans="1:10">
       <c r="A114" s="221"/>
       <c r="B114" s="140" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C114" s="140" t="s">
         <v>598</v>
@@ -13688,7 +13716,7 @@
     <row r="118" spans="1:10">
       <c r="A118" s="221"/>
       <c r="B118" s="140" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C118" s="140" t="s">
         <v>600</v>
@@ -13726,7 +13754,7 @@
     <row r="120" spans="1:10">
       <c r="A120" s="221"/>
       <c r="B120" s="140" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C120" s="140" t="s">
         <v>598</v>
@@ -13745,7 +13773,7 @@
     <row r="121" spans="1:10">
       <c r="A121" s="221"/>
       <c r="B121" s="140" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C121" s="140" t="s">
         <v>594</v>
@@ -13804,7 +13832,7 @@
     <row r="124" spans="1:10">
       <c r="A124" s="224"/>
       <c r="B124" s="154" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C124" s="154" t="s">
         <v>594</v>
@@ -13831,7 +13859,7 @@
     <row r="125" spans="1:10">
       <c r="A125" s="224"/>
       <c r="B125" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C125" s="154" t="s">
         <v>602</v>
@@ -13858,7 +13886,7 @@
     <row r="126" spans="1:10">
       <c r="A126" s="224"/>
       <c r="B126" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C126" s="154" t="s">
         <v>594</v>
@@ -13912,7 +13940,7 @@
     <row r="128" spans="1:10">
       <c r="A128" s="224"/>
       <c r="B128" s="154" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C128" s="154" t="s">
         <v>594</v>
@@ -13939,7 +13967,7 @@
     <row r="129" spans="1:10">
       <c r="A129" s="224"/>
       <c r="B129" s="154" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="C129" s="154" t="s">
         <v>597</v>
@@ -14014,7 +14042,7 @@
     <row r="132" spans="1:10">
       <c r="A132" s="224"/>
       <c r="B132" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C132" s="154" t="s">
         <v>597</v>
@@ -14035,7 +14063,7 @@
     <row r="133" spans="1:10">
       <c r="A133" s="224"/>
       <c r="B133" s="154" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C133" s="154" t="s">
         <v>594</v>
@@ -14055,7 +14083,7 @@
     <row r="134" spans="1:10">
       <c r="A134" s="224"/>
       <c r="B134" s="154" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C134" s="154" t="s">
         <v>594</v>
@@ -14113,7 +14141,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="226" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B138" s="146" t="s">
         <v>615</v>
@@ -14141,7 +14169,7 @@
     <row r="139" spans="1:10">
       <c r="A139" s="221"/>
       <c r="B139" s="140" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C139" s="140" t="s">
         <v>594</v>
@@ -14193,7 +14221,7 @@
     <row r="141" spans="1:10">
       <c r="A141" s="221"/>
       <c r="B141" s="140" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C141" s="140" t="s">
         <v>594</v>
@@ -14219,7 +14247,7 @@
     <row r="142" spans="1:10">
       <c r="A142" s="221"/>
       <c r="B142" s="140" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C142" s="140" t="s">
         <v>594</v>
@@ -14245,7 +14273,7 @@
     <row r="143" spans="1:10">
       <c r="A143" s="221"/>
       <c r="B143" s="140" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C143" s="140" t="s">
         <v>594</v>
@@ -14271,7 +14299,7 @@
     <row r="144" spans="1:10">
       <c r="A144" s="221"/>
       <c r="B144" s="140" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="C144" s="140" t="s">
         <v>602</v>
@@ -14297,7 +14325,7 @@
     <row r="145" spans="1:9">
       <c r="A145" s="221"/>
       <c r="B145" s="140" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C145" s="140" t="s">
         <v>597</v>
@@ -14323,7 +14351,7 @@
     <row r="146" spans="1:9">
       <c r="A146" s="221"/>
       <c r="B146" s="140" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C146" s="140" t="s">
         <v>604</v>
@@ -14363,7 +14391,7 @@
     <row r="148" spans="1:9">
       <c r="A148" s="221"/>
       <c r="B148" s="140" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C148" s="140" t="s">
         <v>597</v>
@@ -14382,7 +14410,7 @@
     <row r="149" spans="1:9">
       <c r="A149" s="221"/>
       <c r="B149" s="140" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C149" s="140" t="s">
         <v>594</v>
@@ -14401,7 +14429,7 @@
     <row r="150" spans="1:9">
       <c r="A150" s="221"/>
       <c r="B150" s="140" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C150" s="140" t="s">
         <v>594</v>
@@ -14435,16 +14463,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A93:A107"/>
+    <mergeCell ref="A108:A122"/>
+    <mergeCell ref="A123:A137"/>
+    <mergeCell ref="A138:A152"/>
+    <mergeCell ref="A78:A92"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A31"/>
     <mergeCell ref="A32:A47"/>
     <mergeCell ref="A48:A62"/>
     <mergeCell ref="A63:A77"/>
-    <mergeCell ref="A93:A107"/>
-    <mergeCell ref="A108:A122"/>
-    <mergeCell ref="A123:A137"/>
-    <mergeCell ref="A138:A152"/>
-    <mergeCell ref="A78:A92"/>
   </mergeCells>
   <conditionalFormatting sqref="I3 I18 I33 I49 I64 I79 I94 I109 I124 I139">
     <cfRule type="cellIs" dxfId="12" priority="12" operator="greaterThan">
@@ -16252,7 +16280,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="165" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -16261,7 +16289,7 @@
       <c r="C2" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="168" t="s">
+      <c r="D2" s="162" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="52" t="s">
@@ -16273,14 +16301,14 @@
       <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="173"/>
+      <c r="A3" s="166"/>
       <c r="B3" t="s">
         <v>128</v>
       </c>
       <c r="C3" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="169"/>
+      <c r="D3" s="163"/>
       <c r="E3" s="46" t="s">
         <v>130</v>
       </c>
@@ -16288,11 +16316,11 @@
       <c r="G3" s="49"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="173"/>
+      <c r="A4" s="166"/>
       <c r="C4" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="169"/>
+      <c r="D4" s="163"/>
       <c r="E4" s="46" t="s">
         <v>132</v>
       </c>
@@ -16300,12 +16328,12 @@
       <c r="G4" s="49"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="174"/>
+      <c r="A5" s="167"/>
       <c r="B5" s="50"/>
       <c r="C5" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D5" s="170"/>
+      <c r="D5" s="164"/>
       <c r="E5" s="55" t="s">
         <v>132</v>
       </c>
@@ -16313,7 +16341,7 @@
       <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="175" t="s">
+      <c r="A6" s="168" t="s">
         <v>134</v>
       </c>
       <c r="B6" t="s">
@@ -16322,7 +16350,7 @@
       <c r="C6" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="162" t="s">
         <v>137</v>
       </c>
       <c r="E6" s="46" t="s">
@@ -16332,11 +16360,11 @@
       <c r="G6" s="49"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="175"/>
+      <c r="A7" s="168"/>
       <c r="C7" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="169"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="46" t="s">
         <v>118</v>
       </c>
@@ -16344,22 +16372,22 @@
       <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="175"/>
-      <c r="D8" s="169"/>
+      <c r="A8" s="168"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="175"/>
-      <c r="D9" s="169"/>
+      <c r="A9" s="168"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="176"/>
-      <c r="D10" s="170"/>
+      <c r="A10" s="169"/>
+      <c r="D10" s="164"/>
       <c r="E10" s="46" t="s">
         <v>140</v>
       </c>
@@ -16367,7 +16395,7 @@
       <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="177" t="s">
+      <c r="A11" s="170" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="47" t="s">
@@ -16376,7 +16404,7 @@
       <c r="C11" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="168" t="s">
+      <c r="D11" s="162" t="s">
         <v>142</v>
       </c>
       <c r="E11" s="52" t="s">
@@ -16386,11 +16414,11 @@
       <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="177"/>
+      <c r="A12" s="170"/>
       <c r="C12" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="169"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="46"/>
       <c r="F12" s="46" t="s">
         <v>143</v>
@@ -16398,14 +16426,14 @@
       <c r="G12" s="49"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="177"/>
+      <c r="A13" s="170"/>
       <c r="B13" t="s">
         <v>145</v>
       </c>
       <c r="C13" t="s">
         <v>146</v>
       </c>
-      <c r="D13" s="169"/>
+      <c r="D13" s="163"/>
       <c r="E13" s="46" t="s">
         <v>143</v>
       </c>
@@ -16413,24 +16441,24 @@
       <c r="G13" s="49"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="177"/>
+      <c r="A14" s="170"/>
       <c r="C14" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="169"/>
+      <c r="D14" s="163"/>
       <c r="E14" s="46"/>
       <c r="F14" s="46"/>
       <c r="G14" s="49"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="177"/>
-      <c r="D15" s="170"/>
+      <c r="A15" s="170"/>
+      <c r="D15" s="164"/>
       <c r="E15" s="46"/>
       <c r="F15" s="46"/>
       <c r="G15" s="49"/>
     </row>
     <row r="16" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="171" t="s">
         <v>4</v>
       </c>
       <c r="B16" s="47" t="s">
@@ -16439,7 +16467,7 @@
       <c r="C16" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="162" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="52" t="s">
@@ -16449,11 +16477,11 @@
       <c r="G16" s="48"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A17" s="163"/>
+      <c r="A17" s="172"/>
       <c r="C17" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="169"/>
+      <c r="D17" s="163"/>
       <c r="E17" s="46">
         <v>1.5</v>
       </c>
@@ -16461,11 +16489,11 @@
       <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="163"/>
+      <c r="A18" s="172"/>
       <c r="C18" t="s">
         <v>150</v>
       </c>
-      <c r="D18" s="169"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="46"/>
       <c r="F18" s="46">
         <v>1.5</v>
@@ -16473,11 +16501,11 @@
       <c r="G18" s="49"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="163"/>
+      <c r="A19" s="172"/>
       <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="170"/>
+      <c r="D19" s="164"/>
       <c r="E19" s="46"/>
       <c r="F19" s="57">
         <v>0.5</v>
@@ -16485,7 +16513,7 @@
       <c r="G19" s="49"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="171" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="47" t="s">
@@ -16500,7 +16528,7 @@
       <c r="G20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="163"/>
+      <c r="A21" s="172"/>
       <c r="C21" t="s">
         <v>154</v>
       </c>
@@ -16510,7 +16538,7 @@
       <c r="G21" s="49"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="164"/>
+      <c r="A22" s="173"/>
       <c r="B22" s="50"/>
       <c r="C22" s="50" t="s">
         <v>155</v>
@@ -16525,7 +16553,7 @@
       <c r="G22" s="51"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="171" t="s">
+      <c r="A23" s="177" t="s">
         <v>28</v>
       </c>
       <c r="B23" t="s">
@@ -16534,7 +16562,7 @@
       <c r="C23" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="168"/>
+      <c r="D23" s="162"/>
       <c r="E23" s="46" t="s">
         <v>158</v>
       </c>
@@ -16542,11 +16570,11 @@
       <c r="G23" s="49"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="171"/>
+      <c r="A24" s="177"/>
       <c r="C24" t="s">
         <v>159</v>
       </c>
-      <c r="D24" s="169"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="46">
         <v>2</v>
       </c>
@@ -16554,11 +16582,11 @@
       <c r="G24" s="49"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="171"/>
+      <c r="A25" s="177"/>
       <c r="C25" t="s">
         <v>151</v>
       </c>
-      <c r="D25" s="169"/>
+      <c r="D25" s="163"/>
       <c r="E25" s="46">
         <v>1</v>
       </c>
@@ -16566,11 +16594,11 @@
       <c r="G25" s="49"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="171"/>
+      <c r="A26" s="177"/>
       <c r="C26" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="170"/>
+      <c r="D26" s="164"/>
       <c r="E26" s="46">
         <v>1</v>
       </c>
@@ -16578,7 +16606,7 @@
       <c r="G26" s="49"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="171" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="47" t="s">
@@ -16587,7 +16615,7 @@
       <c r="C27" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="162" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="52" t="s">
@@ -16597,14 +16625,14 @@
       <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="163"/>
+      <c r="A28" s="172"/>
       <c r="B28" s="45" t="s">
         <v>128</v>
       </c>
       <c r="C28" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="D28" s="169"/>
+      <c r="D28" s="163"/>
       <c r="E28" s="46" t="s">
         <v>130</v>
       </c>
@@ -16612,11 +16640,11 @@
       <c r="G28" s="49"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="163"/>
+      <c r="A29" s="172"/>
       <c r="C29" t="s">
         <v>131</v>
       </c>
-      <c r="D29" s="169"/>
+      <c r="D29" s="163"/>
       <c r="E29" s="46" t="s">
         <v>132</v>
       </c>
@@ -16624,12 +16652,12 @@
       <c r="G29" s="49"/>
     </row>
     <row r="30" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A30" s="163"/>
+      <c r="A30" s="172"/>
       <c r="B30" s="50"/>
       <c r="C30" s="50" t="s">
         <v>160</v>
       </c>
-      <c r="D30" s="170"/>
+      <c r="D30" s="164"/>
       <c r="E30" s="55" t="s">
         <v>132</v>
       </c>
@@ -16637,10 +16665,10 @@
       <c r="G30" s="51"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="162" t="s">
+      <c r="A31" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="165" t="s">
+      <c r="D31" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E31" s="46"/>
@@ -16648,14 +16676,14 @@
       <c r="G31" s="49"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="163"/>
+      <c r="A32" s="172"/>
       <c r="B32" t="s">
         <v>161</v>
       </c>
       <c r="C32" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="166"/>
+      <c r="D32" s="175"/>
       <c r="E32" s="46" t="s">
         <v>138</v>
       </c>
@@ -16663,14 +16691,14 @@
       <c r="G32" s="49"/>
     </row>
     <row r="33" spans="1:7" ht="21" customHeight="1">
-      <c r="A33" s="163"/>
+      <c r="A33" s="172"/>
       <c r="B33" t="s">
         <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>163</v>
       </c>
-      <c r="D33" s="166"/>
+      <c r="D33" s="175"/>
       <c r="E33" s="46" t="s">
         <v>130</v>
       </c>
@@ -16678,28 +16706,28 @@
       <c r="G33" s="49"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="163"/>
-      <c r="D34" s="166"/>
+      <c r="A34" s="172"/>
+      <c r="D34" s="175"/>
       <c r="E34" s="46"/>
       <c r="F34" s="46"/>
       <c r="G34" s="49"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="163"/>
-      <c r="D35" s="167"/>
+      <c r="A35" s="172"/>
+      <c r="D35" s="176"/>
       <c r="E35" s="46"/>
       <c r="F35" s="46"/>
       <c r="G35" s="49"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="171" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="D36" s="168"/>
+      <c r="D36" s="162"/>
       <c r="E36" s="52" t="s">
         <v>165</v>
       </c>
@@ -16707,14 +16735,14 @@
       <c r="G36" s="48"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="163"/>
+      <c r="A37" s="172"/>
       <c r="B37" t="s">
         <v>166</v>
       </c>
       <c r="C37" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="D37" s="169"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="46" t="s">
         <v>168</v>
       </c>
@@ -16722,11 +16750,11 @@
       <c r="G37" s="49"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="163"/>
+      <c r="A38" s="172"/>
       <c r="C38" t="s">
         <v>169</v>
       </c>
-      <c r="D38" s="169"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="46"/>
       <c r="F38" s="46" t="s">
         <v>170</v>
@@ -16734,46 +16762,46 @@
       <c r="G38" s="49"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="163"/>
-      <c r="D39" s="169"/>
+      <c r="A39" s="172"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="46"/>
       <c r="F39" s="46"/>
       <c r="G39" s="49"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="164"/>
+      <c r="A40" s="173"/>
       <c r="B40" s="50"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="170"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="55"/>
       <c r="F40" s="55"/>
       <c r="G40" s="51"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="163" t="s">
+      <c r="A41" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="168" t="s">
+      <c r="D41" s="162" t="s">
         <v>24</v>
       </c>
       <c r="E41" s="46"/>
       <c r="G41" s="49"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="163"/>
-      <c r="D42" s="169"/>
+      <c r="A42" s="172"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="46"/>
       <c r="G42" s="49"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="163"/>
+      <c r="A43" s="172"/>
       <c r="B43" t="s">
         <v>24</v>
       </c>
       <c r="C43" t="s">
         <v>162</v>
       </c>
-      <c r="D43" s="169"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="46" t="s">
         <v>171</v>
       </c>
@@ -16783,16 +16811,16 @@
       <c r="G43" s="49"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="163"/>
-      <c r="D44" s="169"/>
+      <c r="A44" s="172"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="46"/>
       <c r="G44" s="49"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="164"/>
+      <c r="A45" s="173"/>
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="170"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="55"/>
       <c r="F45" s="50"/>
       <c r="G45" s="51"/>
@@ -16802,12 +16830,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="D6:D10"/>
-    <mergeCell ref="D11:D15"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="A11:A15"/>
-    <mergeCell ref="D2:D5"/>
     <mergeCell ref="A36:A40"/>
     <mergeCell ref="A41:A45"/>
     <mergeCell ref="D31:D35"/>
@@ -16821,6 +16843,12 @@
     <mergeCell ref="D27:D30"/>
     <mergeCell ref="A31:A35"/>
     <mergeCell ref="A27:A30"/>
+    <mergeCell ref="D6:D10"/>
+    <mergeCell ref="D11:D15"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A15"/>
+    <mergeCell ref="D2:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16866,7 +16894,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="183" t="s">
+      <c r="A2" s="187" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -16875,7 +16903,7 @@
       <c r="C2" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -16887,12 +16915,12 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="184"/>
+      <c r="A3" s="188"/>
       <c r="B3" s="66"/>
       <c r="C3" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="57" t="s">
         <v>130</v>
       </c>
@@ -16900,12 +16928,12 @@
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="184"/>
+      <c r="A4" s="188"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="187"/>
+      <c r="D4" s="191"/>
       <c r="E4" s="57" t="s">
         <v>176</v>
       </c>
@@ -16913,12 +16941,12 @@
       <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="184"/>
+      <c r="A5" s="188"/>
       <c r="B5" s="66"/>
       <c r="C5" s="68" t="s">
         <v>177</v>
       </c>
-      <c r="D5" s="187"/>
+      <c r="D5" s="191"/>
       <c r="E5" s="57" t="s">
         <v>173</v>
       </c>
@@ -16926,12 +16954,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="184"/>
+      <c r="A6" s="188"/>
       <c r="B6" s="66"/>
       <c r="C6" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D6" s="187"/>
+      <c r="D6" s="191"/>
       <c r="E6" s="57" t="s">
         <v>127</v>
       </c>
@@ -16939,12 +16967,12 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="185"/>
+      <c r="A7" s="189"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="188"/>
+      <c r="D7" s="192"/>
       <c r="E7" s="58" t="s">
         <v>179</v>
       </c>
@@ -16952,7 +16980,7 @@
       <c r="G7" s="61"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="189" t="s">
+      <c r="A8" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B8" s="66" t="s">
@@ -16961,7 +16989,7 @@
       <c r="C8" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="181" t="s">
+      <c r="D8" s="179" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="63" t="s">
@@ -16971,12 +16999,12 @@
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189"/>
+      <c r="A9" s="193"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="179"/>
       <c r="E9" s="63" t="s">
         <v>130</v>
       </c>
@@ -16984,12 +17012,12 @@
       <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66" t="s">
         <v>182</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="63" t="s">
         <v>183</v>
       </c>
@@ -16997,12 +17025,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="190"/>
+      <c r="A11" s="194"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="179"/>
       <c r="E11" s="63" t="s">
         <v>185</v>
       </c>
@@ -17010,14 +17038,14 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="189" t="s">
+      <c r="A12" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="62"/>
       <c r="C12" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E12" s="62" t="s">
@@ -17027,12 +17055,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="189"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="63"/>
       <c r="C13" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="181"/>
+      <c r="D13" s="179"/>
       <c r="E13" s="63" t="s">
         <v>187</v>
       </c>
@@ -17040,12 +17068,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="189"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="76"/>
       <c r="C14" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="D14" s="181"/>
+      <c r="D14" s="179"/>
       <c r="E14" s="63"/>
       <c r="F14" s="60" t="s">
         <v>130</v>
@@ -17053,12 +17081,12 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="189"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="63" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="181"/>
+      <c r="D15" s="179"/>
       <c r="E15" s="63" t="s">
         <v>191</v>
       </c>
@@ -17066,23 +17094,23 @@
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="190"/>
+      <c r="A16" s="194"/>
       <c r="B16" s="64"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="182"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="63"/>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
     </row>
     <row r="17" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="185" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E17" s="62" t="s">
@@ -17092,14 +17120,14 @@
       <c r="G17" s="59"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C18" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D18" s="181"/>
+      <c r="D18" s="179"/>
       <c r="E18" s="63" t="s">
         <v>176</v>
       </c>
@@ -17107,12 +17135,12 @@
       <c r="G18" s="60"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A19" s="178"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="66"/>
       <c r="C19" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="181"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="63" t="s">
         <v>176</v>
       </c>
@@ -17120,12 +17148,12 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66" t="s">
         <v>178</v>
       </c>
-      <c r="D20" s="181"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="63"/>
       <c r="F20" s="63" t="s">
         <v>194</v>
@@ -17133,7 +17161,7 @@
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="184" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="65" t="s">
@@ -17142,41 +17170,41 @@
       <c r="C21" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="180" t="s">
+      <c r="E21" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="192" t="s">
+      <c r="F21" s="181" t="s">
         <v>198</v>
       </c>
       <c r="G21" s="59"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="66"/>
       <c r="C22" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="193"/>
+      <c r="D22" s="179"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="182"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="178"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="67"/>
       <c r="C23" s="67" t="s">
         <v>199</v>
       </c>
-      <c r="D23" s="182"/>
-      <c r="E23" s="182"/>
-      <c r="F23" s="194"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="183"/>
       <c r="G23" s="61"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="191" t="s">
+      <c r="A24" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="66" t="s">
@@ -17185,7 +17213,7 @@
       <c r="C24" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D24" s="181"/>
+      <c r="D24" s="179"/>
       <c r="E24" s="63" t="s">
         <v>173</v>
       </c>
@@ -17193,12 +17221,12 @@
       <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="66"/>
       <c r="C25" s="66" t="s">
         <v>200</v>
       </c>
-      <c r="D25" s="181"/>
+      <c r="D25" s="179"/>
       <c r="E25" s="63" t="s">
         <v>191</v>
       </c>
@@ -17206,12 +17234,12 @@
       <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="178"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="66"/>
       <c r="C26" s="66" t="s">
         <v>181</v>
       </c>
-      <c r="D26" s="181"/>
+      <c r="D26" s="179"/>
       <c r="E26" s="63" t="s">
         <v>130</v>
       </c>
@@ -17219,12 +17247,12 @@
       <c r="G26" s="60"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="178"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="66"/>
       <c r="C27" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="181"/>
+      <c r="D27" s="179"/>
       <c r="E27" s="63" t="s">
         <v>202</v>
       </c>
@@ -17232,12 +17260,12 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="179"/>
+      <c r="A28" s="186"/>
       <c r="B28" s="66"/>
       <c r="C28" s="66" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="182"/>
+      <c r="D28" s="180"/>
       <c r="E28" s="63" t="s">
         <v>130</v>
       </c>
@@ -17245,7 +17273,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="178" t="s">
+      <c r="A29" s="185" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="74" t="s">
@@ -17254,7 +17282,7 @@
       <c r="C29" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D29" s="180" t="s">
+      <c r="D29" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E29" s="62" t="s">
@@ -17266,12 +17294,12 @@
       <c r="G29" s="59"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="178"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="70"/>
       <c r="C30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="181"/>
+      <c r="D30" s="179"/>
       <c r="E30" s="63" t="s">
         <v>205</v>
       </c>
@@ -17279,12 +17307,12 @@
       <c r="G30" s="60"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="178"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="D31" s="181"/>
+      <c r="D31" s="179"/>
       <c r="E31" s="63" t="s">
         <v>130</v>
       </c>
@@ -17292,12 +17320,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="178"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="71"/>
       <c r="C32" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="D32" s="181"/>
+      <c r="D32" s="179"/>
       <c r="E32" s="63" t="s">
         <v>179</v>
       </c>
@@ -17305,12 +17333,12 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="178"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="72"/>
       <c r="C33" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="181"/>
+      <c r="D33" s="179"/>
       <c r="E33" s="63" t="s">
         <v>208</v>
       </c>
@@ -17318,12 +17346,12 @@
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A34" s="178"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="73"/>
       <c r="C34" s="58" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="182"/>
+      <c r="D34" s="180"/>
       <c r="E34" s="64" t="s">
         <v>132</v>
       </c>
@@ -17331,12 +17359,12 @@
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="191" t="s">
+      <c r="A35" s="184" t="s">
         <v>29</v>
       </c>
       <c r="B35" s="66"/>
       <c r="C35" s="66"/>
-      <c r="D35" s="180" t="s">
+      <c r="D35" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="63"/>
@@ -17344,12 +17372,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="66"/>
       <c r="C36" s="66" t="s">
         <v>210</v>
       </c>
-      <c r="D36" s="181"/>
+      <c r="D36" s="179"/>
       <c r="E36" s="63" t="s">
         <v>130</v>
       </c>
@@ -17357,14 +17385,14 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7" ht="21" customHeight="1">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="66" t="s">
         <v>211</v>
       </c>
       <c r="C37" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="181"/>
+      <c r="D37" s="179"/>
       <c r="E37" s="63" t="s">
         <v>180</v>
       </c>
@@ -17372,12 +17400,12 @@
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="66"/>
       <c r="C38" s="66" t="s">
         <v>212</v>
       </c>
-      <c r="D38" s="181"/>
+      <c r="D38" s="179"/>
       <c r="E38" s="63"/>
       <c r="F38" s="60" t="s">
         <v>130</v>
@@ -17385,23 +17413,23 @@
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="178"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
-      <c r="D39" s="182"/>
+      <c r="D39" s="180"/>
       <c r="E39" s="63"/>
       <c r="F39" s="60"/>
       <c r="G39" s="60"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="191" t="s">
+      <c r="A40" s="184" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="65"/>
       <c r="C40" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="180"/>
+      <c r="D40" s="178"/>
       <c r="E40" s="62" t="s">
         <v>165</v>
       </c>
@@ -17409,14 +17437,14 @@
       <c r="G40" s="59"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="178"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="66" t="s">
         <v>166</v>
       </c>
       <c r="C41" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="181"/>
+      <c r="D41" s="179"/>
       <c r="E41" s="63" t="s">
         <v>168</v>
       </c>
@@ -17424,12 +17452,12 @@
       <c r="G41" s="60"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="178"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66" t="s">
         <v>213</v>
       </c>
-      <c r="D42" s="181"/>
+      <c r="D42" s="179"/>
       <c r="E42" s="63"/>
       <c r="F42" s="60" t="s">
         <v>170</v>
@@ -17437,32 +17465,32 @@
       <c r="G42" s="60"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="178"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
-      <c r="D43" s="181"/>
+      <c r="D43" s="179"/>
       <c r="E43" s="63"/>
       <c r="F43" s="60"/>
       <c r="G43" s="60"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="179"/>
+      <c r="A44" s="186"/>
       <c r="B44" s="67"/>
       <c r="C44" s="67"/>
-      <c r="D44" s="182"/>
+      <c r="D44" s="180"/>
       <c r="E44" s="64"/>
       <c r="F44" s="60"/>
       <c r="G44" s="61"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="178" t="s">
+      <c r="A45" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="66"/>
       <c r="C45" s="65" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="180" t="s">
+      <c r="D45" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="65" t="s">
@@ -17472,12 +17500,12 @@
       <c r="G45" s="60"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="178"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="181"/>
+      <c r="D46" s="179"/>
       <c r="E46" s="66" t="s">
         <v>176</v>
       </c>
@@ -17485,14 +17513,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="178"/>
+      <c r="A47" s="185"/>
       <c r="B47" s="66" t="s">
         <v>193</v>
       </c>
       <c r="C47" s="66" t="s">
         <v>214</v>
       </c>
-      <c r="D47" s="181"/>
+      <c r="D47" s="179"/>
       <c r="E47" s="66" t="s">
         <v>176</v>
       </c>
@@ -17500,12 +17528,12 @@
       <c r="G47" s="60"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="178"/>
+      <c r="A48" s="185"/>
       <c r="B48" s="66"/>
       <c r="C48" s="66" t="s">
         <v>215</v>
       </c>
-      <c r="D48" s="181"/>
+      <c r="D48" s="179"/>
       <c r="E48" s="66"/>
       <c r="F48" s="63" t="s">
         <v>194</v>
@@ -17513,10 +17541,10 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="179"/>
+      <c r="A49" s="186"/>
       <c r="B49" s="67"/>
       <c r="C49" s="67"/>
-      <c r="D49" s="182"/>
+      <c r="D49" s="180"/>
       <c r="E49" s="67"/>
       <c r="F49" s="64"/>
       <c r="G49" s="61"/>
@@ -17529,12 +17557,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="D40:D44"/>
     <mergeCell ref="A45:A49"/>
     <mergeCell ref="D45:D49"/>
     <mergeCell ref="A29:A34"/>
@@ -17551,6 +17573,12 @@
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="D24:D28"/>
     <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="D40:D44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17599,12 +17627,12 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="184" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="65"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="190" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="62" t="s">
@@ -17616,34 +17644,34 @@
       <c r="G2" s="59"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="178"/>
+      <c r="A3" s="185"/>
       <c r="B3" s="66" t="s">
         <v>216</v>
       </c>
       <c r="C3" s="66" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="187"/>
+      <c r="D3" s="191"/>
       <c r="E3" s="57"/>
       <c r="F3" s="63"/>
       <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="179"/>
+      <c r="A4" s="186"/>
       <c r="B4" s="67"/>
       <c r="C4" s="66"/>
-      <c r="D4" s="188"/>
+      <c r="D4" s="192"/>
       <c r="E4" s="58"/>
       <c r="F4" s="64"/>
       <c r="G4" s="61"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="189" t="s">
+      <c r="A5" s="193" t="s">
         <v>134</v>
       </c>
       <c r="B5" s="66"/>
       <c r="C5" s="62"/>
-      <c r="D5" s="166" t="s">
+      <c r="D5" s="175" t="s">
         <v>137</v>
       </c>
       <c r="E5" s="63"/>
@@ -17651,12 +17679,12 @@
       <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="189"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="66"/>
       <c r="C6" s="63" t="s">
         <v>217</v>
       </c>
-      <c r="D6" s="166"/>
+      <c r="D6" s="175"/>
       <c r="E6" s="63" t="s">
         <v>218</v>
       </c>
@@ -17664,30 +17692,30 @@
       <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="189"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="66"/>
       <c r="C7" s="63"/>
-      <c r="D7" s="166"/>
+      <c r="D7" s="175"/>
       <c r="E7" s="63"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="190"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="66"/>
       <c r="C8" s="64"/>
-      <c r="D8" s="166"/>
+      <c r="D8" s="175"/>
       <c r="E8" s="63"/>
       <c r="F8" s="60"/>
       <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="189" t="s">
+      <c r="A9" s="193" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="62"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="178" t="s">
         <v>142</v>
       </c>
       <c r="E9" s="65"/>
@@ -17695,12 +17723,12 @@
       <c r="G9" s="59"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="189"/>
+      <c r="A10" s="193"/>
       <c r="B10" s="63"/>
       <c r="C10" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="179"/>
       <c r="E10" s="66" t="s">
         <v>106</v>
       </c>
@@ -17710,12 +17738,12 @@
       <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="189"/>
+      <c r="A11" s="193"/>
       <c r="B11" s="63" t="s">
         <v>220</v>
       </c>
       <c r="C11" s="57"/>
-      <c r="D11" s="182"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="67"/>
       <c r="F11" s="63" t="s">
         <v>130</v>
@@ -17723,12 +17751,12 @@
       <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="191" t="s">
+      <c r="A12" s="184" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="65"/>
       <c r="C12" s="62"/>
-      <c r="D12" s="165" t="s">
+      <c r="D12" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="66"/>
@@ -17736,12 +17764,12 @@
       <c r="G12" s="59"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="178"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C13" s="76"/>
-      <c r="D13" s="166"/>
+      <c r="D13" s="175"/>
       <c r="E13" s="66" t="s">
         <v>222</v>
       </c>
@@ -17749,12 +17777,12 @@
       <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="178"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="66"/>
       <c r="C14" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="66"/>
       <c r="F14" s="63" t="s">
         <v>222</v>
@@ -17762,62 +17790,62 @@
       <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="179"/>
+      <c r="A15" s="186"/>
       <c r="B15" s="67"/>
       <c r="C15" s="64"/>
-      <c r="D15" s="166"/>
+      <c r="D15" s="175"/>
       <c r="E15" s="66"/>
       <c r="F15" s="64"/>
       <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="178" t="s">
+      <c r="A16" s="185" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="63"/>
       <c r="C16" s="57"/>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="178" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="178" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="193">
+      <c r="F16" s="182">
         <v>1</v>
       </c>
       <c r="G16" s="59"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="178"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="63" t="s">
         <v>224</v>
       </c>
       <c r="C17" s="77" t="s">
         <v>225</v>
       </c>
-      <c r="D17" s="181"/>
-      <c r="E17" s="181"/>
-      <c r="F17" s="193"/>
+      <c r="D17" s="179"/>
+      <c r="E17" s="179"/>
+      <c r="F17" s="182"/>
       <c r="G17" s="60"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="178"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="64"/>
       <c r="C18" s="58" t="s">
         <v>226</v>
       </c>
-      <c r="D18" s="182"/>
-      <c r="E18" s="182"/>
-      <c r="F18" s="194"/>
+      <c r="D18" s="180"/>
+      <c r="E18" s="180"/>
+      <c r="F18" s="183"/>
       <c r="G18" s="61"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="191" t="s">
+      <c r="A19" s="184" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="66"/>
-      <c r="D19" s="181" t="s">
+      <c r="D19" s="179" t="s">
         <v>227</v>
       </c>
       <c r="E19" s="63"/>
@@ -17825,23 +17853,23 @@
       <c r="G19" s="60"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="178"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="66"/>
       <c r="C20" s="66"/>
-      <c r="D20" s="181"/>
+      <c r="D20" s="179"/>
       <c r="E20" s="63"/>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="178"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="66" t="s">
         <v>228</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="D21" s="181"/>
+      <c r="D21" s="179"/>
       <c r="E21" s="63" t="s">
         <v>185</v>
       </c>
@@ -17851,34 +17879,34 @@
       <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="178"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="66" t="s">
         <v>231</v>
       </c>
       <c r="C22" s="66"/>
-      <c r="D22" s="181"/>
+      <c r="D22" s="179"/>
       <c r="E22" s="63"/>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="179"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="66"/>
       <c r="C23" s="66"/>
-      <c r="D23" s="182"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="63"/>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="178" t="s">
+      <c r="A24" s="185" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="78"/>
       <c r="C24" s="62" t="s">
         <v>232</v>
       </c>
-      <c r="D24" s="165" t="s">
+      <c r="D24" s="174" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="65" t="s">
@@ -17888,30 +17916,30 @@
       <c r="G24" s="62"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="178"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="83"/>
       <c r="C25" s="63"/>
-      <c r="D25" s="166"/>
+      <c r="D25" s="175"/>
       <c r="E25" s="66"/>
       <c r="F25" s="66"/>
       <c r="G25" s="63"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="178"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="94"/>
       <c r="C26" s="64"/>
-      <c r="D26" s="166"/>
+      <c r="D26" s="175"/>
       <c r="E26" s="66"/>
       <c r="F26" s="67"/>
       <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="191" t="s">
+      <c r="A27" s="184" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="66"/>
       <c r="C27" s="66"/>
-      <c r="D27" s="180" t="s">
+      <c r="D27" s="178" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="62"/>
@@ -17919,14 +17947,14 @@
       <c r="G27" s="60"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="178"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="66" t="s">
         <v>220</v>
       </c>
       <c r="C28" s="66" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="181"/>
+      <c r="D28" s="179"/>
       <c r="E28" s="63" t="s">
         <v>222</v>
       </c>
@@ -17936,12 +17964,12 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="178"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="66" t="s">
         <v>221</v>
       </c>
       <c r="C29" s="66"/>
-      <c r="D29" s="181"/>
+      <c r="D29" s="179"/>
       <c r="E29" s="64"/>
       <c r="F29" s="60" t="s">
         <v>130</v>
@@ -17949,25 +17977,25 @@
       <c r="G29" s="60"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="191" t="s">
+      <c r="A30" s="184" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="65"/>
       <c r="C30" s="65"/>
-      <c r="D30" s="192"/>
+      <c r="D30" s="181"/>
       <c r="E30" s="60"/>
       <c r="F30" s="59"/>
       <c r="G30" s="59"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="178"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="66" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="68" t="s">
         <v>235</v>
       </c>
-      <c r="D31" s="193"/>
+      <c r="D31" s="182"/>
       <c r="E31" s="60" t="s">
         <v>168</v>
       </c>
@@ -17975,12 +18003,12 @@
       <c r="G31" s="60"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="178"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="66"/>
       <c r="C32" s="66" t="s">
         <v>236</v>
       </c>
-      <c r="D32" s="193"/>
+      <c r="D32" s="182"/>
       <c r="E32" s="60"/>
       <c r="F32" s="60" t="s">
         <v>170</v>
@@ -17988,30 +18016,30 @@
       <c r="G32" s="60"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="178"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="66"/>
       <c r="C33" s="66"/>
-      <c r="D33" s="193"/>
+      <c r="D33" s="182"/>
       <c r="E33" s="60"/>
       <c r="F33" s="60"/>
       <c r="G33" s="60"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="179"/>
+      <c r="A34" s="186"/>
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
-      <c r="D34" s="194"/>
+      <c r="D34" s="183"/>
       <c r="E34" s="60"/>
       <c r="F34" s="60"/>
       <c r="G34" s="61"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="178" t="s">
+      <c r="A35" s="185" t="s">
         <v>30</v>
       </c>
       <c r="B35" s="62"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="193" t="s">
+      <c r="D35" s="182" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="92"/>
@@ -18019,12 +18047,12 @@
       <c r="G35" s="60"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="178"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="63"/>
       <c r="C36" s="66" t="s">
         <v>237</v>
       </c>
-      <c r="D36" s="193"/>
+      <c r="D36" s="182"/>
       <c r="E36" s="57" t="s">
         <v>238</v>
       </c>
@@ -18034,45 +18062,35 @@
       <c r="G36" s="60"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="178"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="63" t="s">
         <v>221</v>
       </c>
       <c r="C37" s="46"/>
-      <c r="D37" s="193"/>
+      <c r="D37" s="182"/>
       <c r="E37" s="57"/>
       <c r="F37" s="76"/>
       <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="178"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="63"/>
-      <c r="D38" s="193"/>
+      <c r="D38" s="182"/>
       <c r="E38" s="57"/>
       <c r="F38" s="76"/>
       <c r="G38" s="60"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="179"/>
+      <c r="A39" s="186"/>
       <c r="B39" s="64"/>
       <c r="C39" s="58"/>
-      <c r="D39" s="194"/>
+      <c r="D39" s="183"/>
       <c r="E39" s="58"/>
       <c r="F39" s="64"/>
       <c r="G39" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="A35:A39"/>
-    <mergeCell ref="D35:D39"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="D27:D29"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="D2:D4"/>
@@ -18085,6 +18103,16 @@
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="D16:D18"/>
     <mergeCell ref="E16:E18"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="A35:A39"/>
+    <mergeCell ref="D35:D39"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="D19:D23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="D27:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
